--- a/rotaciones SWAT resumen.xlsx
+++ b/rotaciones SWAT resumen.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nanin\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{80A6821D-7A5F-461E-8034-50BCDF7A3F22}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{91CB3322-8944-467F-8FA1-14DDBCB594E1}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
   </bookViews>
   <sheets>
     <sheet name="AGRC" sheetId="1" r:id="rId1"/>
@@ -18,7 +12,7 @@
     <sheet name="LECH" sheetId="3" r:id="rId3"/>
     <sheet name="GRASP" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="49">
   <si>
     <t>CROP</t>
   </si>
@@ -170,11 +164,23 @@
   <si>
     <t xml:space="preserve">GRASP </t>
   </si>
+  <si>
+    <t>rotacion_6</t>
+  </si>
+  <si>
+    <t>rotacion_7</t>
+  </si>
+  <si>
+    <t>rotacion_4</t>
+  </si>
+  <si>
+    <t>rotacion_5</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -738,7 +744,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -786,21 +792,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -829,9 +820,6 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="23" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -949,9 +937,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1008,9 +993,6 @@
     </xf>
     <xf numFmtId="49" fontId="3" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1025,9 +1007,34 @@
     <xf numFmtId="49" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1088,7 +1095,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1140,7 +1147,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1334,36 +1341,45 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{571F4EEA-2087-4D5A-AF96-C1AAE9D67BD2}">
-  <dimension ref="A1:J21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="21.90625" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="19"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="94"/>
+      <c r="L1" s="101">
+        <v>36892</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1382,12 +1398,21 @@
       <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="21"/>
-    </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J2" s="96"/>
+      <c r="L2" s="101">
+        <v>36923</v>
+      </c>
+      <c r="M2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4">
         <v>1</v>
@@ -1404,14 +1429,23 @@
       <c r="F3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="22" t="s">
+      <c r="I3" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="23" t="s">
+      <c r="J3" s="18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L3" s="101">
+        <v>36951</v>
+      </c>
+      <c r="M3" t="s">
+        <v>10</v>
+      </c>
+      <c r="O3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>7</v>
       </c>
@@ -1430,28 +1464,46 @@
       <c r="F4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="24" t="s">
+      <c r="I4" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="J4" s="20">
+        <v>1</v>
+      </c>
+      <c r="L4" s="101">
+        <v>36982</v>
+      </c>
+      <c r="M4" t="s">
+        <v>12</v>
+      </c>
+      <c r="O4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A5" s="7"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
-      <c r="I5" s="26" t="s">
+      <c r="I5" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="J5" s="22">
+        <v>1</v>
+      </c>
+      <c r="L5" s="101">
+        <v>37012</v>
+      </c>
+      <c r="M5" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="8"/>
       <c r="B6" s="8">
         <v>1</v>
@@ -1468,14 +1520,23 @@
       <c r="F6" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="28" t="s">
+      <c r="I6" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="J6" s="29" t="s">
+      <c r="J6" s="24" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L6" s="101">
+        <v>37043</v>
+      </c>
+      <c r="M6" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
@@ -1494,14 +1555,23 @@
       <c r="F7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="30" t="s">
+      <c r="I7" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="31">
+      <c r="J7" s="26">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L7" s="101">
+        <v>37073</v>
+      </c>
+      <c r="M7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="B8" s="11">
         <v>1</v>
@@ -1518,14 +1588,23 @@
       <c r="F8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="28" t="s">
+      <c r="I8" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="29" t="s">
+      <c r="J8" s="24" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L8" s="101">
+        <v>37104</v>
+      </c>
+      <c r="M8" t="s">
+        <v>12</v>
+      </c>
+      <c r="O8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A9" s="13"/>
       <c r="B9" s="13">
         <v>2</v>
@@ -1542,14 +1621,23 @@
       <c r="F9" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="30" t="s">
+      <c r="I9" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="J9" s="31" t="s">
+      <c r="J9" s="26" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L9" s="101">
+        <v>37135</v>
+      </c>
+      <c r="M9" t="s">
+        <v>12</v>
+      </c>
+      <c r="O9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14" t="s">
         <v>12</v>
       </c>
@@ -1568,14 +1656,23 @@
       <c r="F10" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="32" t="s">
+      <c r="I10" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="J10" s="33" t="s">
+      <c r="J10" s="28" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L10" s="101">
+        <v>37165</v>
+      </c>
+      <c r="M10" t="s">
+        <v>12</v>
+      </c>
+      <c r="O10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
       <c r="B11" s="14">
         <v>2</v>
@@ -1592,8 +1689,17 @@
       <c r="F11" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L11" s="101">
+        <v>37196</v>
+      </c>
+      <c r="M11" t="s">
+        <v>12</v>
+      </c>
+      <c r="O11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A12" s="14"/>
       <c r="B12" s="14">
         <v>2</v>
@@ -1610,8 +1716,17 @@
       <c r="F12" s="14" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L12" s="101">
+        <v>37226</v>
+      </c>
+      <c r="M12" t="s">
+        <v>10</v>
+      </c>
+      <c r="O12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
         <v>10</v>
       </c>
@@ -1630,8 +1745,17 @@
       <c r="F13" s="9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L13" s="101">
+        <v>37257</v>
+      </c>
+      <c r="M13" t="s">
+        <v>10</v>
+      </c>
+      <c r="O13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11"/>
       <c r="B14" s="11">
         <v>2</v>
@@ -1648,8 +1772,14 @@
       <c r="F14" s="11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L14" s="101">
+        <v>37288</v>
+      </c>
+      <c r="M14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A15" s="15"/>
       <c r="B15" s="15">
         <v>3</v>
@@ -1666,8 +1796,14 @@
       <c r="F15" s="15" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L15" s="101">
+        <v>37316</v>
+      </c>
+      <c r="M15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>7</v>
       </c>
@@ -1686,16 +1822,28 @@
       <c r="F16" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="L16" s="101">
+        <v>37347</v>
+      </c>
+      <c r="M16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A17" s="7"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="L17" s="101">
+        <v>37377</v>
+      </c>
+      <c r="M17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A18" s="8"/>
       <c r="B18" s="8">
         <v>3</v>
@@ -1712,8 +1860,14 @@
       <c r="F18" s="8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="L18" s="101">
+        <v>37408</v>
+      </c>
+      <c r="M18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A19" s="4" t="s">
         <v>13</v>
       </c>
@@ -1732,8 +1886,14 @@
       <c r="F19" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="L19" s="101">
+        <v>37438</v>
+      </c>
+      <c r="M19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4">
         <v>3</v>
@@ -1750,8 +1910,14 @@
       <c r="F20" s="4" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="L20" s="101">
+        <v>37469</v>
+      </c>
+      <c r="M20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="16"/>
       <c r="B21" s="16">
         <v>3</v>
@@ -1767,6 +1933,420 @@
       </c>
       <c r="F21" s="16" t="s">
         <v>11</v>
+      </c>
+      <c r="L21" s="101">
+        <v>37500</v>
+      </c>
+      <c r="M21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L22" s="101">
+        <v>37530</v>
+      </c>
+      <c r="M22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L23" s="101">
+        <v>37561</v>
+      </c>
+      <c r="M23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L24" s="101">
+        <v>37591</v>
+      </c>
+      <c r="M24" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L25" s="101">
+        <v>37622</v>
+      </c>
+      <c r="M25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L26" s="101">
+        <v>37653</v>
+      </c>
+      <c r="M26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L27" s="101">
+        <v>37681</v>
+      </c>
+      <c r="M27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L28" s="101">
+        <v>37712</v>
+      </c>
+      <c r="M28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L29" s="101">
+        <v>37742</v>
+      </c>
+      <c r="M29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L30" s="101">
+        <v>37773</v>
+      </c>
+      <c r="M30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L31" s="101">
+        <v>37803</v>
+      </c>
+      <c r="M31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L32" s="101">
+        <v>37834</v>
+      </c>
+      <c r="M32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L33" s="101">
+        <v>37865</v>
+      </c>
+      <c r="M33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L34" s="101">
+        <v>37895</v>
+      </c>
+      <c r="M34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L35" s="101">
+        <v>37926</v>
+      </c>
+      <c r="M35" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L36" s="101">
+        <v>37956</v>
+      </c>
+      <c r="M36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L37" s="101">
+        <v>37987</v>
+      </c>
+      <c r="M37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L38" s="101">
+        <v>38018</v>
+      </c>
+      <c r="M38" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L39" s="101">
+        <v>38047</v>
+      </c>
+      <c r="M39" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L40" s="101">
+        <v>38078</v>
+      </c>
+      <c r="M40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L41" s="101">
+        <v>38108</v>
+      </c>
+      <c r="M41" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L42" s="101">
+        <v>38139</v>
+      </c>
+      <c r="M42" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L43" s="101">
+        <v>38169</v>
+      </c>
+      <c r="M43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L44" s="101">
+        <v>38200</v>
+      </c>
+      <c r="M44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L45" s="101">
+        <v>38231</v>
+      </c>
+      <c r="M45" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L46" s="101">
+        <v>38261</v>
+      </c>
+      <c r="M46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L47" s="101">
+        <v>38292</v>
+      </c>
+      <c r="M47" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L48" s="101">
+        <v>38322</v>
+      </c>
+      <c r="M48" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L49" s="101">
+        <v>38353</v>
+      </c>
+      <c r="M49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L50" s="101">
+        <v>38384</v>
+      </c>
+      <c r="M50" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L51" s="101">
+        <v>38412</v>
+      </c>
+      <c r="M51" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L52" s="101">
+        <v>38443</v>
+      </c>
+      <c r="M52" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L53" s="101">
+        <v>38473</v>
+      </c>
+      <c r="M53" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L54" s="101">
+        <v>38504</v>
+      </c>
+      <c r="M54" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="55" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L55" s="101">
+        <v>38534</v>
+      </c>
+      <c r="M55" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L56" s="101">
+        <v>38565</v>
+      </c>
+      <c r="M56" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L57" s="101">
+        <v>38596</v>
+      </c>
+      <c r="M57" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L58" s="101">
+        <v>38626</v>
+      </c>
+      <c r="M58" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L59" s="101">
+        <v>38657</v>
+      </c>
+      <c r="M59" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L60" s="101">
+        <v>38687</v>
+      </c>
+      <c r="M60" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L61" s="101">
+        <v>38718</v>
+      </c>
+      <c r="M61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L62" s="101">
+        <v>38749</v>
+      </c>
+      <c r="M62" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L63" s="101">
+        <v>38777</v>
+      </c>
+      <c r="M63" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L64" s="101">
+        <v>38808</v>
+      </c>
+      <c r="M64" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="65" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L65" s="101">
+        <v>38838</v>
+      </c>
+      <c r="M65" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="66" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L66" s="101">
+        <v>38869</v>
+      </c>
+      <c r="M66" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="67" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L67" s="101">
+        <v>38899</v>
+      </c>
+      <c r="M67" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="68" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L68" s="101">
+        <v>38930</v>
+      </c>
+      <c r="M68" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="69" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L69" s="101">
+        <v>38961</v>
+      </c>
+      <c r="M69" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="70" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L70" s="101">
+        <v>38991</v>
+      </c>
+      <c r="M70" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="71" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L71" s="101">
+        <v>39022</v>
+      </c>
+      <c r="M71" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="12:13" x14ac:dyDescent="0.25">
+      <c r="L72" s="101">
+        <v>39052</v>
+      </c>
+      <c r="M72" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1774,174 +2354,187 @@
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="I2:J2"/>
   </mergeCells>
+  <conditionalFormatting sqref="M1:M72">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3370022-3DC0-4162-AA57-3D3C59E4E556}">
-  <dimension ref="A1:F67"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J86"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.26953125" customWidth="1"/>
-    <col min="3" max="3" width="18.36328125" customWidth="1"/>
-    <col min="6" max="6" width="19.453125" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="95" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="20" t="s">
+      <c r="B1" s="97"/>
+      <c r="C1" s="95" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="21"/>
-    </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="35"/>
-      <c r="B2" s="36" t="s">
+      <c r="D1" s="96"/>
+    </row>
+    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="29"/>
+      <c r="B2" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38" t="s">
+      <c r="C2" s="31"/>
+      <c r="D2" s="32" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="39" t="s">
+    <row r="3" spans="1:10" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A3" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="40">
-        <v>1</v>
-      </c>
-      <c r="C3" s="39" t="s">
+      <c r="B3" s="34">
+        <v>1</v>
+      </c>
+      <c r="C3" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="42" t="s">
+      <c r="D3" s="35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="45">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="46" t="s">
+      <c r="C4" s="38"/>
+      <c r="D4" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A5" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="47">
+      <c r="B5" s="41">
         <v>2</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="41">
+      <c r="D5" s="35">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="42" t="s">
+    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="44"/>
-      <c r="D6" s="45">
+      <c r="C6" s="38"/>
+      <c r="D6" s="39">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="39" t="s">
+    <row r="7" spans="1:10" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A7" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="40">
-        <v>3</v>
-      </c>
-      <c r="C7" s="39" t="s">
+      <c r="B7" s="34">
+        <v>3</v>
+      </c>
+      <c r="C7" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="41">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="48"/>
-      <c r="B8" s="49">
-        <v>3</v>
-      </c>
-      <c r="C8" s="42" t="s">
+      <c r="D7" s="35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="42"/>
+      <c r="B8" s="43">
+        <v>3</v>
+      </c>
+      <c r="C8" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="50" t="s">
+      <c r="D8" s="44" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="39" t="s">
+    <row r="9" spans="1:10" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A9" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="40">
+      <c r="B9" s="34">
         <v>4</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="D9" s="51">
+      <c r="D9" s="45">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="48"/>
-      <c r="B10" s="49">
+    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="42"/>
+      <c r="B10" s="43">
         <v>4</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="50" t="s">
+      <c r="D10" s="44" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="52" t="s">
+    <row r="11" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="53">
+      <c r="B11" s="47">
         <v>5</v>
       </c>
-      <c r="C11" s="52" t="s">
+      <c r="C11" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="54">
+      <c r="D11" s="48">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="74" t="s">
+    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="74"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="74"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
-    </row>
-    <row r="14" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B13" s="98"/>
+      <c r="C13" s="98"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="98"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
@@ -1960,54 +2553,87 @@
       <c r="F14" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="55" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="56" t="s">
+      <c r="I14" t="s">
+        <v>47</v>
+      </c>
+      <c r="J14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="55">
-        <v>1</v>
-      </c>
-      <c r="D15" s="55">
-        <v>1</v>
-      </c>
-      <c r="E15" s="55">
+      <c r="C15" s="49">
+        <v>1</v>
+      </c>
+      <c r="D15" s="49">
+        <v>1</v>
+      </c>
+      <c r="E15" s="49">
         <v>9</v>
       </c>
-      <c r="F15" s="55" t="s">
+      <c r="F15" s="49" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="57"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="59"/>
-      <c r="B17" s="60">
-        <v>1</v>
-      </c>
-      <c r="C17" s="59">
+      <c r="H15" s="101">
+        <v>36892</v>
+      </c>
+      <c r="I15" t="s">
+        <v>13</v>
+      </c>
+      <c r="J15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="51"/>
+      <c r="B16" s="52"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="H16" s="101">
+        <v>36923</v>
+      </c>
+      <c r="I16" t="s">
+        <v>13</v>
+      </c>
+      <c r="J16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="53"/>
+      <c r="B17" s="54">
+        <v>1</v>
+      </c>
+      <c r="C17" s="53">
         <v>8</v>
       </c>
-      <c r="D17" s="59">
-        <v>1</v>
-      </c>
-      <c r="E17" s="59">
+      <c r="D17" s="53">
+        <v>1</v>
+      </c>
+      <c r="E17" s="53">
         <v>8</v>
       </c>
-      <c r="F17" s="59" t="s">
+      <c r="F17" s="53" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H17" s="101">
+        <v>36951</v>
+      </c>
+      <c r="I17" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>13</v>
       </c>
@@ -2026,8 +2652,17 @@
       <c r="F18" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H18" s="101">
+        <v>36982</v>
+      </c>
+      <c r="I18" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="6">
         <v>1</v>
@@ -2044,8 +2679,17 @@
       <c r="F19" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H19" s="101">
+        <v>37012</v>
+      </c>
+      <c r="I19" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
       <c r="B20" s="6">
         <v>1</v>
@@ -2062,148 +2706,229 @@
       <c r="F20" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="61"/>
-      <c r="B21" s="62">
+      <c r="H20" s="101">
+        <v>37043</v>
+      </c>
+      <c r="I20" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="55"/>
+      <c r="B21" s="56">
         <v>2</v>
       </c>
-      <c r="C21" s="61">
-        <v>3</v>
-      </c>
-      <c r="D21" s="61">
+      <c r="C21" s="55">
+        <v>3</v>
+      </c>
+      <c r="D21" s="55">
         <v>15</v>
       </c>
-      <c r="E21" s="61">
+      <c r="E21" s="55">
         <v>5</v>
       </c>
-      <c r="F21" s="61" t="s">
+      <c r="F21" s="55" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="63" t="s">
+      <c r="H21" s="101">
+        <v>37073</v>
+      </c>
+      <c r="I21" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="64">
+      <c r="B22" s="58">
         <v>2</v>
       </c>
-      <c r="C22" s="63">
+      <c r="C22" s="57">
         <v>4</v>
       </c>
-      <c r="D22" s="63">
+      <c r="D22" s="57">
         <v>30</v>
       </c>
-      <c r="E22" s="63">
-        <v>1</v>
-      </c>
-      <c r="F22" s="63" t="s">
+      <c r="E22" s="57">
+        <v>1</v>
+      </c>
+      <c r="F22" s="57" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="63"/>
-      <c r="B23" s="64">
+      <c r="H22" s="101">
+        <v>37104</v>
+      </c>
+      <c r="I22" t="s">
+        <v>29</v>
+      </c>
+      <c r="J22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="57"/>
+      <c r="B23" s="58">
         <v>2</v>
       </c>
-      <c r="C23" s="63">
+      <c r="C23" s="57">
         <v>4</v>
       </c>
-      <c r="D23" s="63">
+      <c r="D23" s="57">
         <v>30</v>
       </c>
-      <c r="E23" s="63">
-        <v>3</v>
-      </c>
-      <c r="F23" s="63" t="s">
+      <c r="E23" s="57">
+        <v>3</v>
+      </c>
+      <c r="F23" s="57" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="63"/>
-      <c r="B24" s="64">
+      <c r="H23" s="101">
+        <v>37135</v>
+      </c>
+      <c r="I23" t="s">
+        <v>29</v>
+      </c>
+      <c r="J23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="57"/>
+      <c r="B24" s="58">
         <v>2</v>
       </c>
-      <c r="C24" s="63">
+      <c r="C24" s="57">
         <v>6</v>
       </c>
-      <c r="D24" s="63">
+      <c r="D24" s="57">
         <v>15</v>
       </c>
-      <c r="E24" s="63">
+      <c r="E24" s="57">
         <v>9</v>
       </c>
-      <c r="F24" s="63" t="s">
+      <c r="F24" s="57" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="63"/>
-      <c r="B25" s="64">
+      <c r="H24" s="101">
+        <v>37165</v>
+      </c>
+      <c r="I24" t="s">
+        <v>29</v>
+      </c>
+      <c r="J24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="57"/>
+      <c r="B25" s="58">
         <v>2</v>
       </c>
-      <c r="C25" s="63">
+      <c r="C25" s="57">
         <v>6</v>
       </c>
-      <c r="D25" s="63">
+      <c r="D25" s="57">
         <v>20</v>
       </c>
-      <c r="E25" s="63">
-        <v>3</v>
-      </c>
-      <c r="F25" s="63" t="s">
+      <c r="E25" s="57">
+        <v>3</v>
+      </c>
+      <c r="F25" s="57" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="63"/>
-      <c r="B26" s="64">
+      <c r="H25" s="101">
+        <v>37196</v>
+      </c>
+      <c r="I25" t="s">
+        <v>29</v>
+      </c>
+      <c r="J25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="57"/>
+      <c r="B26" s="58">
         <v>2</v>
       </c>
-      <c r="C26" s="63">
+      <c r="C26" s="57">
         <v>7</v>
       </c>
-      <c r="D26" s="63">
+      <c r="D26" s="57">
         <v>20</v>
       </c>
-      <c r="E26" s="63">
-        <v>3</v>
-      </c>
-      <c r="F26" s="63" t="s">
+      <c r="E26" s="57">
+        <v>3</v>
+      </c>
+      <c r="F26" s="57" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H26" s="101">
+        <v>37226</v>
+      </c>
+      <c r="I26" t="s">
+        <v>29</v>
+      </c>
+      <c r="J26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="7"/>
-      <c r="B27" s="65"/>
+      <c r="B27" s="59"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="59"/>
-      <c r="B28" s="60">
+      <c r="H27" s="101">
+        <v>37257</v>
+      </c>
+      <c r="I27" t="s">
+        <v>29</v>
+      </c>
+      <c r="J27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="53"/>
+      <c r="B28" s="54">
         <v>2</v>
       </c>
-      <c r="C28" s="59">
+      <c r="C28" s="53">
         <v>9</v>
       </c>
-      <c r="D28" s="59">
+      <c r="D28" s="53">
         <v>5</v>
       </c>
-      <c r="E28" s="59">
+      <c r="E28" s="53">
         <v>8</v>
       </c>
-      <c r="F28" s="59" t="s">
+      <c r="F28" s="53" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H28" s="101">
+        <v>37288</v>
+      </c>
+      <c r="I28" t="s">
+        <v>29</v>
+      </c>
+      <c r="J28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B29" s="66">
+      <c r="B29" s="60">
         <v>2</v>
       </c>
       <c r="C29" s="6">
@@ -2218,10 +2943,19 @@
       <c r="F29" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H29" s="101">
+        <v>37316</v>
+      </c>
+      <c r="I29" t="s">
+        <v>29</v>
+      </c>
+      <c r="J29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="6"/>
-      <c r="B30" s="66">
+      <c r="B30" s="60">
         <v>2</v>
       </c>
       <c r="C30" s="6">
@@ -2236,10 +2970,19 @@
       <c r="F30" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H30" s="101">
+        <v>37347</v>
+      </c>
+      <c r="I30" t="s">
+        <v>29</v>
+      </c>
+      <c r="J30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6"/>
-      <c r="B31" s="66">
+      <c r="B31" s="60">
         <v>2</v>
       </c>
       <c r="C31" s="6">
@@ -2254,164 +2997,265 @@
       <c r="F31" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="61"/>
-      <c r="B32" s="62">
-        <v>3</v>
-      </c>
-      <c r="C32" s="61">
-        <v>3</v>
-      </c>
-      <c r="D32" s="61">
+      <c r="H31" s="101">
+        <v>37377</v>
+      </c>
+      <c r="I31" t="s">
+        <v>29</v>
+      </c>
+      <c r="J31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="55"/>
+      <c r="B32" s="56">
+        <v>3</v>
+      </c>
+      <c r="C32" s="55">
+        <v>3</v>
+      </c>
+      <c r="D32" s="55">
         <v>15</v>
       </c>
-      <c r="E32" s="61">
+      <c r="E32" s="55">
         <v>5</v>
       </c>
-      <c r="F32" s="61" t="s">
+      <c r="F32" s="55" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A33" s="67" t="s">
-        <v>29</v>
-      </c>
-      <c r="B33" s="68">
-        <v>3</v>
-      </c>
-      <c r="C33" s="67">
+      <c r="H32" s="101">
+        <v>37408</v>
+      </c>
+      <c r="I32" t="s">
+        <v>29</v>
+      </c>
+      <c r="J32" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="62">
+        <v>3</v>
+      </c>
+      <c r="C33" s="61">
         <v>4</v>
       </c>
-      <c r="D33" s="67">
+      <c r="D33" s="61">
         <v>30</v>
       </c>
-      <c r="E33" s="67">
-        <v>1</v>
-      </c>
-      <c r="F33" s="67" t="s">
+      <c r="E33" s="61">
+        <v>1</v>
+      </c>
+      <c r="F33" s="61" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="67"/>
-      <c r="B34" s="68">
-        <v>3</v>
-      </c>
-      <c r="C34" s="67">
+      <c r="H33" s="101">
+        <v>37438</v>
+      </c>
+      <c r="I33" t="s">
+        <v>29</v>
+      </c>
+      <c r="J33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="61"/>
+      <c r="B34" s="62">
+        <v>3</v>
+      </c>
+      <c r="C34" s="61">
         <v>4</v>
       </c>
-      <c r="D34" s="67">
+      <c r="D34" s="61">
         <v>30</v>
       </c>
-      <c r="E34" s="67">
-        <v>3</v>
-      </c>
-      <c r="F34" s="67" t="s">
+      <c r="E34" s="61">
+        <v>3</v>
+      </c>
+      <c r="F34" s="61" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="69"/>
-      <c r="B35" s="70">
-        <v>3</v>
-      </c>
-      <c r="C35" s="69">
+      <c r="H34" s="101">
+        <v>37469</v>
+      </c>
+      <c r="I34" t="s">
+        <v>29</v>
+      </c>
+      <c r="J34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="63"/>
+      <c r="B35" s="64">
+        <v>3</v>
+      </c>
+      <c r="C35" s="63">
         <v>10</v>
       </c>
-      <c r="D35" s="69">
+      <c r="D35" s="63">
         <v>15</v>
       </c>
-      <c r="E35" s="69">
+      <c r="E35" s="63">
         <v>9</v>
       </c>
-      <c r="F35" s="69" t="s">
+      <c r="F35" s="63" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A36" s="55"/>
-      <c r="B36" s="56">
+      <c r="H35" s="101">
+        <v>37500</v>
+      </c>
+      <c r="I35" t="s">
+        <v>29</v>
+      </c>
+      <c r="J35" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="49"/>
+      <c r="B36" s="50">
         <v>4</v>
       </c>
-      <c r="C36" s="55">
-        <v>1</v>
-      </c>
-      <c r="D36" s="55">
-        <v>1</v>
-      </c>
-      <c r="E36" s="55">
+      <c r="C36" s="49">
+        <v>1</v>
+      </c>
+      <c r="D36" s="49">
+        <v>1</v>
+      </c>
+      <c r="E36" s="49">
         <v>9</v>
       </c>
-      <c r="F36" s="55" t="s">
+      <c r="F36" s="49" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A37" s="69"/>
-      <c r="B37" s="70">
+      <c r="H36" s="101">
+        <v>37530</v>
+      </c>
+      <c r="I36" t="s">
+        <v>29</v>
+      </c>
+      <c r="J36" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="63"/>
+      <c r="B37" s="64">
         <v>4</v>
       </c>
-      <c r="C37" s="69">
+      <c r="C37" s="63">
         <v>4</v>
       </c>
-      <c r="D37" s="69">
+      <c r="D37" s="63">
         <v>16</v>
       </c>
-      <c r="E37" s="69">
-        <v>3</v>
-      </c>
-      <c r="F37" s="69" t="s">
+      <c r="E37" s="63">
+        <v>3</v>
+      </c>
+      <c r="F37" s="63" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" s="55"/>
-      <c r="B38" s="56">
+      <c r="H37" s="101">
+        <v>37561</v>
+      </c>
+      <c r="I37" t="s">
+        <v>29</v>
+      </c>
+      <c r="J37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="49"/>
+      <c r="B38" s="50">
         <v>5</v>
       </c>
-      <c r="C38" s="55">
-        <v>1</v>
-      </c>
-      <c r="D38" s="55">
-        <v>1</v>
-      </c>
-      <c r="E38" s="55">
+      <c r="C38" s="49">
+        <v>1</v>
+      </c>
+      <c r="D38" s="49">
+        <v>1</v>
+      </c>
+      <c r="E38" s="49">
         <v>9</v>
       </c>
-      <c r="F38" s="55" t="s">
+      <c r="F38" s="49" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="71"/>
-      <c r="B39" s="72">
+      <c r="H38" s="101">
+        <v>37591</v>
+      </c>
+      <c r="I38" t="s">
+        <v>29</v>
+      </c>
+      <c r="J38" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="65"/>
+      <c r="B39" s="66">
         <v>5</v>
       </c>
-      <c r="C39" s="71">
+      <c r="C39" s="65">
         <v>4</v>
       </c>
-      <c r="D39" s="71">
+      <c r="D39" s="65">
         <v>16</v>
       </c>
-      <c r="E39" s="71">
-        <v>3</v>
-      </c>
-      <c r="F39" s="71" t="s">
+      <c r="E39" s="65">
+        <v>3</v>
+      </c>
+      <c r="F39" s="65" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="74" t="s">
+      <c r="H39" s="101">
+        <v>37622</v>
+      </c>
+      <c r="I39" t="s">
+        <v>29</v>
+      </c>
+      <c r="J39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H40" s="101">
+        <v>37653</v>
+      </c>
+      <c r="I40" t="s">
+        <v>29</v>
+      </c>
+      <c r="J40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="B41" s="74"/>
-      <c r="C41" s="74"/>
-      <c r="D41" s="74"/>
-      <c r="E41" s="74"/>
-      <c r="F41" s="74"/>
-    </row>
-    <row r="42" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B41" s="98"/>
+      <c r="C41" s="98"/>
+      <c r="D41" s="98"/>
+      <c r="E41" s="98"/>
+      <c r="F41" s="98"/>
+      <c r="H41" s="101">
+        <v>37681</v>
+      </c>
+      <c r="I41" t="s">
+        <v>29</v>
+      </c>
+      <c r="J41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>0</v>
       </c>
@@ -2427,127 +3271,199 @@
       <c r="E42" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F42" s="73" t="s">
+      <c r="F42" s="67" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A43" s="55"/>
-      <c r="B43" s="55">
-        <v>1</v>
-      </c>
-      <c r="C43" s="55">
-        <v>1</v>
-      </c>
-      <c r="D43" s="55">
-        <v>1</v>
-      </c>
-      <c r="E43" s="55">
+      <c r="H42" s="101">
+        <v>37712</v>
+      </c>
+      <c r="I42" t="s">
+        <v>29</v>
+      </c>
+      <c r="J42" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="49"/>
+      <c r="B43" s="49">
+        <v>1</v>
+      </c>
+      <c r="C43" s="49">
+        <v>1</v>
+      </c>
+      <c r="D43" s="49">
+        <v>1</v>
+      </c>
+      <c r="E43" s="49">
         <v>9</v>
       </c>
-      <c r="F43" s="55" t="s">
+      <c r="F43" s="49" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A44" s="71"/>
-      <c r="B44" s="72" t="s">
+      <c r="H43" s="101">
+        <v>37742</v>
+      </c>
+      <c r="I43" t="s">
+        <v>29</v>
+      </c>
+      <c r="J43" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="65"/>
+      <c r="B44" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="C44" s="71" t="s">
+      <c r="C44" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="D44" s="71">
+      <c r="D44" s="65">
         <v>16</v>
       </c>
-      <c r="E44" s="71">
-        <v>3</v>
-      </c>
-      <c r="F44" s="71" t="s">
+      <c r="E44" s="65">
+        <v>3</v>
+      </c>
+      <c r="F44" s="65" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="55"/>
-      <c r="B45" s="55">
+      <c r="H44" s="101">
+        <v>37773</v>
+      </c>
+      <c r="I44" t="s">
+        <v>29</v>
+      </c>
+      <c r="J44" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="49"/>
+      <c r="B45" s="49">
         <v>2</v>
       </c>
-      <c r="C45" s="55">
-        <v>1</v>
-      </c>
-      <c r="D45" s="55">
-        <v>1</v>
-      </c>
-      <c r="E45" s="55">
+      <c r="C45" s="49">
+        <v>1</v>
+      </c>
+      <c r="D45" s="49">
+        <v>1</v>
+      </c>
+      <c r="E45" s="49">
         <v>9</v>
       </c>
-      <c r="F45" s="55" t="s">
+      <c r="F45" s="49" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="71"/>
-      <c r="B46" s="72" t="s">
+      <c r="H45" s="101">
+        <v>37803</v>
+      </c>
+      <c r="I45" t="s">
+        <v>29</v>
+      </c>
+      <c r="J45" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="65"/>
+      <c r="B46" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="C46" s="71" t="s">
+      <c r="C46" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="D46" s="71">
+      <c r="D46" s="65">
         <v>16</v>
       </c>
-      <c r="E46" s="71">
-        <v>3</v>
-      </c>
-      <c r="F46" s="71" t="s">
+      <c r="E46" s="65">
+        <v>3</v>
+      </c>
+      <c r="F46" s="65" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" s="55"/>
-      <c r="B47" s="55">
-        <v>3</v>
-      </c>
-      <c r="C47" s="55">
-        <v>1</v>
-      </c>
-      <c r="D47" s="55">
-        <v>1</v>
-      </c>
-      <c r="E47" s="55">
+      <c r="H46" s="101">
+        <v>37834</v>
+      </c>
+      <c r="I46" t="s">
+        <v>29</v>
+      </c>
+      <c r="J46" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="49"/>
+      <c r="B47" s="49">
+        <v>3</v>
+      </c>
+      <c r="C47" s="49">
+        <v>1</v>
+      </c>
+      <c r="D47" s="49">
+        <v>1</v>
+      </c>
+      <c r="E47" s="49">
         <v>9</v>
       </c>
-      <c r="F47" s="55" t="s">
+      <c r="F47" s="49" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" s="57"/>
-      <c r="B48" s="57"/>
-      <c r="C48" s="57"/>
-      <c r="D48" s="57"/>
-      <c r="E48" s="57"/>
-      <c r="F48" s="57"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" s="59"/>
-      <c r="B49" s="59">
-        <v>3</v>
-      </c>
-      <c r="C49" s="59">
+      <c r="H47" s="101">
+        <v>37865</v>
+      </c>
+      <c r="I47" t="s">
+        <v>29</v>
+      </c>
+      <c r="J47" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="51"/>
+      <c r="B48" s="51"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="51"/>
+      <c r="E48" s="51"/>
+      <c r="F48" s="51"/>
+      <c r="H48" s="101">
+        <v>37895</v>
+      </c>
+      <c r="I48" t="s">
+        <v>29</v>
+      </c>
+      <c r="J48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="53"/>
+      <c r="B49" s="53">
+        <v>3</v>
+      </c>
+      <c r="C49" s="53">
         <v>8</v>
       </c>
-      <c r="D49" s="59">
-        <v>1</v>
-      </c>
-      <c r="E49" s="59">
+      <c r="D49" s="53">
+        <v>1</v>
+      </c>
+      <c r="E49" s="53">
         <v>8</v>
       </c>
-      <c r="F49" s="59" t="s">
+      <c r="F49" s="53" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H49" s="101">
+        <v>37926</v>
+      </c>
+      <c r="I49" t="s">
+        <v>29</v>
+      </c>
+      <c r="J49" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>13</v>
       </c>
@@ -2566,8 +3482,17 @@
       <c r="F50" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H50" s="101">
+        <v>37956</v>
+      </c>
+      <c r="I50" t="s">
+        <v>29</v>
+      </c>
+      <c r="J50" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="6">
         <v>3</v>
@@ -2584,8 +3509,17 @@
       <c r="F51" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H51" s="101">
+        <v>37987</v>
+      </c>
+      <c r="I51" t="s">
+        <v>29</v>
+      </c>
+      <c r="J51" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6"/>
       <c r="B52" s="6">
         <v>3</v>
@@ -2602,144 +3536,225 @@
       <c r="F52" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A53" s="61"/>
-      <c r="B53" s="61">
+      <c r="H52" s="101">
+        <v>38018</v>
+      </c>
+      <c r="I52" t="s">
+        <v>29</v>
+      </c>
+      <c r="J52" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="55"/>
+      <c r="B53" s="55">
         <v>4</v>
       </c>
-      <c r="C53" s="61">
-        <v>3</v>
-      </c>
-      <c r="D53" s="61">
+      <c r="C53" s="55">
+        <v>3</v>
+      </c>
+      <c r="D53" s="55">
         <v>15</v>
       </c>
-      <c r="E53" s="61">
+      <c r="E53" s="55">
         <v>5</v>
       </c>
-      <c r="F53" s="61" t="s">
+      <c r="F53" s="55" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A54" s="63" t="s">
+      <c r="H53" s="101">
+        <v>38047</v>
+      </c>
+      <c r="I53" t="s">
+        <v>29</v>
+      </c>
+      <c r="J53" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="B54" s="63">
+      <c r="B54" s="57">
         <v>4</v>
       </c>
-      <c r="C54" s="63">
+      <c r="C54" s="57">
         <v>4</v>
       </c>
-      <c r="D54" s="63">
+      <c r="D54" s="57">
         <v>30</v>
       </c>
-      <c r="E54" s="63">
-        <v>1</v>
-      </c>
-      <c r="F54" s="63" t="s">
+      <c r="E54" s="57">
+        <v>1</v>
+      </c>
+      <c r="F54" s="57" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A55" s="63"/>
-      <c r="B55" s="64" t="s">
+      <c r="H54" s="101">
+        <v>38078</v>
+      </c>
+      <c r="I54" t="s">
+        <v>29</v>
+      </c>
+      <c r="J54" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="57"/>
+      <c r="B55" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="C55" s="63">
+      <c r="C55" s="57">
         <v>4</v>
       </c>
-      <c r="D55" s="63">
+      <c r="D55" s="57">
         <v>30</v>
       </c>
-      <c r="E55" s="63">
-        <v>3</v>
-      </c>
-      <c r="F55" s="63" t="s">
+      <c r="E55" s="57">
+        <v>3</v>
+      </c>
+      <c r="F55" s="57" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A56" s="63"/>
-      <c r="B56" s="63">
+      <c r="H55" s="101">
+        <v>38108</v>
+      </c>
+      <c r="I55" t="s">
+        <v>29</v>
+      </c>
+      <c r="J55" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" s="57"/>
+      <c r="B56" s="57">
         <v>4</v>
       </c>
-      <c r="C56" s="63">
+      <c r="C56" s="57">
         <v>6</v>
       </c>
-      <c r="D56" s="63">
+      <c r="D56" s="57">
         <v>15</v>
       </c>
-      <c r="E56" s="63">
+      <c r="E56" s="57">
         <v>9</v>
       </c>
-      <c r="F56" s="63" t="s">
+      <c r="F56" s="57" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A57" s="63"/>
-      <c r="B57" s="64" t="s">
+      <c r="H56" s="101">
+        <v>38139</v>
+      </c>
+      <c r="I56" t="s">
+        <v>29</v>
+      </c>
+      <c r="J56" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" s="57"/>
+      <c r="B57" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="C57" s="63">
+      <c r="C57" s="57">
         <v>6</v>
       </c>
-      <c r="D57" s="63">
+      <c r="D57" s="57">
         <v>20</v>
       </c>
-      <c r="E57" s="63">
-        <v>3</v>
-      </c>
-      <c r="F57" s="63" t="s">
+      <c r="E57" s="57">
+        <v>3</v>
+      </c>
+      <c r="F57" s="57" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A58" s="63"/>
-      <c r="B58" s="64" t="s">
+      <c r="H57" s="101">
+        <v>38169</v>
+      </c>
+      <c r="I57" t="s">
+        <v>29</v>
+      </c>
+      <c r="J57" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" s="57"/>
+      <c r="B58" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="C58" s="63">
+      <c r="C58" s="57">
         <v>7</v>
       </c>
-      <c r="D58" s="63">
+      <c r="D58" s="57">
         <v>20</v>
       </c>
-      <c r="E58" s="63">
-        <v>3</v>
-      </c>
-      <c r="F58" s="63" t="s">
+      <c r="E58" s="57">
+        <v>3</v>
+      </c>
+      <c r="F58" s="57" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H58" s="101">
+        <v>38200</v>
+      </c>
+      <c r="I58" t="s">
+        <v>29</v>
+      </c>
+      <c r="J58" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="7"/>
-      <c r="B59" s="65"/>
+      <c r="B59" s="59"/>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A60" s="59"/>
-      <c r="B60" s="59">
+      <c r="H59" s="101">
+        <v>38231</v>
+      </c>
+      <c r="I59" t="s">
+        <v>29</v>
+      </c>
+      <c r="J59" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" s="53"/>
+      <c r="B60" s="53">
         <v>4</v>
       </c>
-      <c r="C60" s="59">
+      <c r="C60" s="53">
         <v>9</v>
       </c>
-      <c r="D60" s="59">
+      <c r="D60" s="53">
         <v>5</v>
       </c>
-      <c r="E60" s="59">
+      <c r="E60" s="53">
         <v>8</v>
       </c>
-      <c r="F60" s="59" t="s">
+      <c r="F60" s="53" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H60" s="101">
+        <v>38261</v>
+      </c>
+      <c r="I60" t="s">
+        <v>13</v>
+      </c>
+      <c r="J60" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>13</v>
       </c>
@@ -2758,8 +3773,17 @@
       <c r="F61" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H61" s="101">
+        <v>38292</v>
+      </c>
+      <c r="I61" t="s">
+        <v>13</v>
+      </c>
+      <c r="J61" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="6"/>
       <c r="B62" s="6">
         <v>4</v>
@@ -2776,8 +3800,17 @@
       <c r="F62" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H62" s="101">
+        <v>38322</v>
+      </c>
+      <c r="I62" t="s">
+        <v>13</v>
+      </c>
+      <c r="J62" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6"/>
       <c r="B63" s="6">
         <v>4</v>
@@ -2794,79 +3827,333 @@
       <c r="F63" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A64" s="61"/>
-      <c r="B64" s="61">
+      <c r="H63" s="101">
+        <v>38353</v>
+      </c>
+      <c r="I63" t="s">
+        <v>13</v>
+      </c>
+      <c r="J63" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="55"/>
+      <c r="B64" s="55">
         <v>5</v>
       </c>
-      <c r="C64" s="61">
-        <v>3</v>
-      </c>
-      <c r="D64" s="61">
+      <c r="C64" s="55">
+        <v>3</v>
+      </c>
+      <c r="D64" s="55">
         <v>15</v>
       </c>
-      <c r="E64" s="61">
+      <c r="E64" s="55">
         <v>5</v>
       </c>
-      <c r="F64" s="61" t="s">
+      <c r="F64" s="55" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A65" s="67" t="s">
-        <v>29</v>
-      </c>
-      <c r="B65" s="67">
+      <c r="H64" s="101">
+        <v>38384</v>
+      </c>
+      <c r="I64" t="s">
+        <v>13</v>
+      </c>
+      <c r="J64" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="B65" s="61">
         <v>5</v>
       </c>
-      <c r="C65" s="67">
+      <c r="C65" s="61">
         <v>4</v>
       </c>
-      <c r="D65" s="67">
+      <c r="D65" s="61">
         <v>30</v>
       </c>
-      <c r="E65" s="67">
-        <v>1</v>
-      </c>
-      <c r="F65" s="67" t="s">
+      <c r="E65" s="61">
+        <v>1</v>
+      </c>
+      <c r="F65" s="61" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A66" s="67"/>
-      <c r="B66" s="68" t="s">
+      <c r="H65" s="101">
+        <v>38412</v>
+      </c>
+      <c r="I65" t="s">
+        <v>13</v>
+      </c>
+      <c r="J65" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="61"/>
+      <c r="B66" s="62" t="s">
         <v>35</v>
       </c>
-      <c r="C66" s="67">
+      <c r="C66" s="61">
         <v>4</v>
       </c>
-      <c r="D66" s="67">
+      <c r="D66" s="61">
         <v>30</v>
       </c>
-      <c r="E66" s="67">
-        <v>3</v>
-      </c>
-      <c r="F66" s="67" t="s">
+      <c r="E66" s="61">
+        <v>3</v>
+      </c>
+      <c r="F66" s="61" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A67" s="71"/>
-      <c r="B67" s="71">
+      <c r="H66" s="101">
+        <v>38443</v>
+      </c>
+      <c r="I66" t="s">
+        <v>38</v>
+      </c>
+      <c r="J66" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="65"/>
+      <c r="B67" s="65">
         <v>5</v>
       </c>
-      <c r="C67" s="71">
+      <c r="C67" s="65">
         <v>10</v>
       </c>
-      <c r="D67" s="71">
+      <c r="D67" s="65">
         <v>15</v>
       </c>
-      <c r="E67" s="71">
+      <c r="E67" s="65">
         <v>9</v>
       </c>
-      <c r="F67" s="71" t="s">
+      <c r="F67" s="65" t="s">
         <v>31</v>
+      </c>
+      <c r="H67" s="101">
+        <v>38473</v>
+      </c>
+      <c r="I67" t="s">
+        <v>38</v>
+      </c>
+      <c r="J67" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H68" s="101">
+        <v>38504</v>
+      </c>
+      <c r="I68" t="s">
+        <v>38</v>
+      </c>
+      <c r="J68" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H69" s="101">
+        <v>38534</v>
+      </c>
+      <c r="I69" t="s">
+        <v>38</v>
+      </c>
+      <c r="J69" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H70" s="101">
+        <v>38565</v>
+      </c>
+      <c r="I70" t="s">
+        <v>38</v>
+      </c>
+      <c r="J70" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H71" s="101">
+        <v>38596</v>
+      </c>
+      <c r="I71" t="s">
+        <v>38</v>
+      </c>
+      <c r="J71" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H72" s="101">
+        <v>38626</v>
+      </c>
+      <c r="I72" t="s">
+        <v>13</v>
+      </c>
+      <c r="J72" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H73" s="101">
+        <v>38657</v>
+      </c>
+      <c r="I73" t="s">
+        <v>13</v>
+      </c>
+      <c r="J73" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H74" s="101">
+        <v>38687</v>
+      </c>
+      <c r="I74" t="s">
+        <v>13</v>
+      </c>
+      <c r="J74" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H75" s="101">
+        <v>38718</v>
+      </c>
+      <c r="I75" t="s">
+        <v>13</v>
+      </c>
+      <c r="J75" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H76" s="101">
+        <v>38749</v>
+      </c>
+      <c r="I76" t="s">
+        <v>13</v>
+      </c>
+      <c r="J76" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H77" s="101">
+        <v>38777</v>
+      </c>
+      <c r="I77" t="s">
+        <v>13</v>
+      </c>
+      <c r="J77" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H78" s="101">
+        <v>38808</v>
+      </c>
+      <c r="I78" t="s">
+        <v>29</v>
+      </c>
+      <c r="J78" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H79" s="101">
+        <v>38838</v>
+      </c>
+      <c r="I79" t="s">
+        <v>29</v>
+      </c>
+      <c r="J79" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H80" s="101">
+        <v>38869</v>
+      </c>
+      <c r="I80" t="s">
+        <v>29</v>
+      </c>
+      <c r="J80" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="81" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H81" s="101">
+        <v>38899</v>
+      </c>
+      <c r="I81" t="s">
+        <v>29</v>
+      </c>
+      <c r="J81" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="82" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H82" s="101">
+        <v>38930</v>
+      </c>
+      <c r="I82" t="s">
+        <v>29</v>
+      </c>
+      <c r="J82" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="83" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H83" s="101">
+        <v>38961</v>
+      </c>
+      <c r="I83" t="s">
+        <v>29</v>
+      </c>
+      <c r="J83" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="84" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H84" s="101">
+        <v>38991</v>
+      </c>
+      <c r="I84" t="s">
+        <v>29</v>
+      </c>
+      <c r="J84" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="85" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H85" s="101">
+        <v>39022</v>
+      </c>
+      <c r="I85" t="s">
+        <v>29</v>
+      </c>
+      <c r="J85" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="86" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H86" s="101">
+        <v>39052</v>
+      </c>
+      <c r="I86" t="s">
+        <v>29</v>
+      </c>
+      <c r="J86" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -2881,29 +4168,37 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAEA1B2E-5156-4615-9C8D-31EF6CE6C0BF}">
-  <dimension ref="A6:F51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A6:K78"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="18.08984375" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="94" t="s">
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="94"/>
-      <c r="C6" s="94"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-    </row>
-    <row r="7" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B6" s="99"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="99"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
+      <c r="J6" t="s">
+        <v>45</v>
+      </c>
+      <c r="K6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
@@ -2922,380 +4217,596 @@
       <c r="F7" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="75"/>
-      <c r="B8" s="75"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="76"/>
-      <c r="B9" s="76">
-        <v>1</v>
-      </c>
-      <c r="C9" s="76">
-        <v>1</v>
-      </c>
-      <c r="D9" s="76">
+      <c r="I7" s="101">
+        <v>36892</v>
+      </c>
+      <c r="J7" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="68"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="I8" s="101">
+        <v>36923</v>
+      </c>
+      <c r="J8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="69"/>
+      <c r="B9" s="69">
+        <v>1</v>
+      </c>
+      <c r="C9" s="69">
+        <v>1</v>
+      </c>
+      <c r="D9" s="69">
         <v>20</v>
       </c>
-      <c r="E9" s="76">
+      <c r="E9" s="69">
         <v>8</v>
       </c>
-      <c r="F9" s="76" t="s">
+      <c r="F9" s="69" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A10" s="63" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="63">
-        <v>1</v>
-      </c>
-      <c r="C10" s="63">
+      <c r="I9" s="101">
+        <v>36951</v>
+      </c>
+      <c r="J9" t="s">
+        <v>38</v>
+      </c>
+      <c r="K9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="57">
+        <v>1</v>
+      </c>
+      <c r="C10" s="57">
         <v>2</v>
       </c>
-      <c r="D10" s="63">
+      <c r="D10" s="57">
         <v>28</v>
       </c>
-      <c r="E10" s="63">
-        <v>1</v>
-      </c>
-      <c r="F10" s="63" t="s">
+      <c r="E10" s="57">
+        <v>1</v>
+      </c>
+      <c r="F10" s="57" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="63"/>
-      <c r="B11" s="63">
-        <v>1</v>
-      </c>
-      <c r="C11" s="63">
+      <c r="I10" s="101">
+        <v>36982</v>
+      </c>
+      <c r="J10" t="s">
+        <v>38</v>
+      </c>
+      <c r="K10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="57"/>
+      <c r="B11" s="57">
+        <v>1</v>
+      </c>
+      <c r="C11" s="57">
         <v>2</v>
       </c>
-      <c r="D11" s="63">
+      <c r="D11" s="57">
         <v>28</v>
       </c>
-      <c r="E11" s="63">
-        <v>3</v>
-      </c>
-      <c r="F11" s="63" t="s">
+      <c r="E11" s="57">
+        <v>3</v>
+      </c>
+      <c r="F11" s="57" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="63"/>
-      <c r="B12" s="63">
-        <v>1</v>
-      </c>
-      <c r="C12" s="63">
+      <c r="I11" s="101">
+        <v>37012</v>
+      </c>
+      <c r="J11" t="s">
+        <v>38</v>
+      </c>
+      <c r="K11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="57"/>
+      <c r="B12" s="57">
+        <v>1</v>
+      </c>
+      <c r="C12" s="57">
         <v>4</v>
       </c>
-      <c r="D12" s="63">
+      <c r="D12" s="57">
         <v>15</v>
       </c>
-      <c r="E12" s="63">
+      <c r="E12" s="57">
         <v>9</v>
       </c>
-      <c r="F12" s="63" t="s">
+      <c r="F12" s="57" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="63"/>
-      <c r="B13" s="63">
-        <v>1</v>
-      </c>
-      <c r="C13" s="63">
+      <c r="I12" s="101">
+        <v>37043</v>
+      </c>
+      <c r="J12" t="s">
+        <v>38</v>
+      </c>
+      <c r="K12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="57"/>
+      <c r="B13" s="57">
+        <v>1</v>
+      </c>
+      <c r="C13" s="57">
         <v>4</v>
       </c>
-      <c r="D13" s="63">
+      <c r="D13" s="57">
         <v>15</v>
       </c>
-      <c r="E13" s="63">
-        <v>3</v>
-      </c>
-      <c r="F13" s="63" t="s">
+      <c r="E13" s="57">
+        <v>3</v>
+      </c>
+      <c r="F13" s="57" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="63"/>
-      <c r="B14" s="63">
-        <v>1</v>
-      </c>
-      <c r="C14" s="63">
+      <c r="I13" s="101">
+        <v>37073</v>
+      </c>
+      <c r="J13" t="s">
+        <v>38</v>
+      </c>
+      <c r="K13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="57"/>
+      <c r="B14" s="57">
+        <v>1</v>
+      </c>
+      <c r="C14" s="57">
         <v>5</v>
       </c>
-      <c r="D14" s="63">
+      <c r="D14" s="57">
         <v>15</v>
       </c>
-      <c r="E14" s="63">
-        <v>3</v>
-      </c>
-      <c r="F14" s="63" t="s">
+      <c r="E14" s="57">
+        <v>3</v>
+      </c>
+      <c r="F14" s="57" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I14" s="101">
+        <v>37104</v>
+      </c>
+      <c r="J14" t="s">
+        <v>38</v>
+      </c>
+      <c r="K14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="7"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="77"/>
-      <c r="B16" s="77">
-        <v>1</v>
-      </c>
-      <c r="C16" s="77">
+      <c r="I15" s="101">
+        <v>37135</v>
+      </c>
+      <c r="J15" t="s">
+        <v>38</v>
+      </c>
+      <c r="K15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="70"/>
+      <c r="B16" s="70">
+        <v>1</v>
+      </c>
+      <c r="C16" s="70">
         <v>9</v>
       </c>
-      <c r="D16" s="77">
-        <v>1</v>
-      </c>
-      <c r="E16" s="77">
+      <c r="D16" s="70">
+        <v>1</v>
+      </c>
+      <c r="E16" s="70">
         <v>8</v>
       </c>
-      <c r="F16" s="77" t="s">
+      <c r="F16" s="70" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="78" t="s">
+      <c r="I16" s="101">
+        <v>37165</v>
+      </c>
+      <c r="J16" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="78">
-        <v>1</v>
-      </c>
-      <c r="C17" s="78">
+      <c r="K16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="71" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="71">
+        <v>1</v>
+      </c>
+      <c r="C17" s="71">
         <v>10</v>
       </c>
-      <c r="D17" s="78">
+      <c r="D17" s="71">
         <v>15</v>
       </c>
-      <c r="E17" s="78">
-        <v>1</v>
-      </c>
-      <c r="F17" s="78" t="s">
+      <c r="E17" s="71">
+        <v>1</v>
+      </c>
+      <c r="F17" s="71" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="78"/>
-      <c r="B18" s="78">
-        <v>1</v>
-      </c>
-      <c r="C18" s="78">
+      <c r="I17" s="101">
+        <v>37196</v>
+      </c>
+      <c r="J17" t="s">
+        <v>39</v>
+      </c>
+      <c r="K17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="71"/>
+      <c r="B18" s="71">
+        <v>1</v>
+      </c>
+      <c r="C18" s="71">
         <v>10</v>
       </c>
-      <c r="D18" s="78">
+      <c r="D18" s="71">
         <v>15</v>
       </c>
-      <c r="E18" s="78">
-        <v>3</v>
-      </c>
-      <c r="F18" s="78" t="s">
+      <c r="E18" s="71">
+        <v>3</v>
+      </c>
+      <c r="F18" s="71" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="79"/>
-      <c r="B19" s="79">
+      <c r="I18" s="101">
+        <v>37226</v>
+      </c>
+      <c r="J18" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="72"/>
+      <c r="B19" s="72">
         <v>2</v>
       </c>
-      <c r="C19" s="79">
+      <c r="C19" s="72">
         <v>2</v>
       </c>
-      <c r="D19" s="79">
-        <v>1</v>
-      </c>
-      <c r="E19" s="79">
+      <c r="D19" s="72">
+        <v>1</v>
+      </c>
+      <c r="E19" s="72">
         <v>5</v>
       </c>
-      <c r="F19" s="79" t="s">
+      <c r="F19" s="72" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="77"/>
-      <c r="B20" s="77">
+      <c r="I19" s="101">
+        <v>37257</v>
+      </c>
+      <c r="J19" t="s">
+        <v>39</v>
+      </c>
+      <c r="K19" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="70"/>
+      <c r="B20" s="70">
         <v>2</v>
       </c>
-      <c r="C20" s="77">
-        <v>3</v>
-      </c>
-      <c r="D20" s="77">
+      <c r="C20" s="70">
+        <v>3</v>
+      </c>
+      <c r="D20" s="70">
         <v>10</v>
       </c>
-      <c r="E20" s="77">
+      <c r="E20" s="70">
         <v>8</v>
       </c>
-      <c r="F20" s="77" t="s">
+      <c r="F20" s="70" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="80" t="s">
-        <v>29</v>
-      </c>
-      <c r="B21" s="80">
+      <c r="I20" s="101">
+        <v>37288</v>
+      </c>
+      <c r="J20" t="s">
+        <v>39</v>
+      </c>
+      <c r="K20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="73" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="73">
         <v>2</v>
       </c>
-      <c r="C21" s="80">
+      <c r="C21" s="73">
         <v>4</v>
       </c>
-      <c r="D21" s="80">
+      <c r="D21" s="73">
         <v>10</v>
       </c>
-      <c r="E21" s="80">
-        <v>1</v>
-      </c>
-      <c r="F21" s="80" t="s">
+      <c r="E21" s="73">
+        <v>1</v>
+      </c>
+      <c r="F21" s="73" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="80"/>
-      <c r="B22" s="80">
+      <c r="I21" s="101">
+        <v>37316</v>
+      </c>
+      <c r="J21" t="s">
+        <v>39</v>
+      </c>
+      <c r="K21" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="73"/>
+      <c r="B22" s="73">
         <v>2</v>
       </c>
-      <c r="C22" s="80">
+      <c r="C22" s="73">
         <v>4</v>
       </c>
-      <c r="D22" s="80">
+      <c r="D22" s="73">
         <v>10</v>
       </c>
-      <c r="E22" s="80">
-        <v>3</v>
-      </c>
-      <c r="F22" s="80" t="s">
+      <c r="E22" s="73">
+        <v>3</v>
+      </c>
+      <c r="F22" s="73" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="81"/>
-      <c r="B23" s="81">
+      <c r="I22" s="101">
+        <v>37347</v>
+      </c>
+      <c r="J22" t="s">
+        <v>29</v>
+      </c>
+      <c r="K22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="74"/>
+      <c r="B23" s="74">
         <v>2</v>
       </c>
-      <c r="C23" s="81">
+      <c r="C23" s="74">
         <v>10</v>
       </c>
-      <c r="D23" s="81">
+      <c r="D23" s="74">
         <v>15</v>
       </c>
-      <c r="E23" s="81">
+      <c r="E23" s="74">
         <v>9</v>
       </c>
-      <c r="F23" s="81" t="s">
+      <c r="F23" s="74" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="82"/>
-      <c r="B24" s="82">
-        <v>3</v>
-      </c>
-      <c r="C24" s="82">
-        <v>1</v>
-      </c>
-      <c r="D24" s="82">
-        <v>1</v>
-      </c>
-      <c r="E24" s="82">
+      <c r="I23" s="101">
+        <v>37377</v>
+      </c>
+      <c r="J23" t="s">
+        <v>29</v>
+      </c>
+      <c r="K23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="75"/>
+      <c r="B24" s="75">
+        <v>3</v>
+      </c>
+      <c r="C24" s="75">
+        <v>1</v>
+      </c>
+      <c r="D24" s="75">
+        <v>1</v>
+      </c>
+      <c r="E24" s="75">
         <v>9</v>
       </c>
-      <c r="F24" s="82" t="s">
+      <c r="F24" s="75" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="81"/>
-      <c r="B25" s="81">
-        <v>3</v>
-      </c>
-      <c r="C25" s="81">
+      <c r="I24" s="101">
+        <v>37408</v>
+      </c>
+      <c r="J24" t="s">
+        <v>29</v>
+      </c>
+      <c r="K24" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="74"/>
+      <c r="B25" s="74">
+        <v>3</v>
+      </c>
+      <c r="C25" s="74">
         <v>4</v>
       </c>
-      <c r="D25" s="81">
+      <c r="D25" s="74">
         <v>30</v>
       </c>
-      <c r="E25" s="81">
-        <v>3</v>
-      </c>
-      <c r="F25" s="81" t="s">
+      <c r="E25" s="74">
+        <v>3</v>
+      </c>
+      <c r="F25" s="74" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="83"/>
-      <c r="B26" s="83">
+      <c r="I25" s="101">
+        <v>37438</v>
+      </c>
+      <c r="J25" t="s">
+        <v>29</v>
+      </c>
+      <c r="K25" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="76"/>
+      <c r="B26" s="76">
         <v>4</v>
       </c>
-      <c r="C26" s="83">
-        <v>1</v>
-      </c>
-      <c r="D26" s="83">
-        <v>1</v>
-      </c>
-      <c r="E26" s="83">
+      <c r="C26" s="76">
+        <v>1</v>
+      </c>
+      <c r="D26" s="76">
+        <v>1</v>
+      </c>
+      <c r="E26" s="76">
         <v>9</v>
       </c>
-      <c r="F26" s="83" t="s">
+      <c r="F26" s="76" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="81"/>
-      <c r="B27" s="81">
+      <c r="I26" s="101">
+        <v>37469</v>
+      </c>
+      <c r="J26" t="s">
+        <v>29</v>
+      </c>
+      <c r="K26" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="74"/>
+      <c r="B27" s="74">
         <v>4</v>
       </c>
-      <c r="C27" s="81">
+      <c r="C27" s="74">
         <v>4</v>
       </c>
-      <c r="D27" s="81">
+      <c r="D27" s="74">
         <v>30</v>
       </c>
-      <c r="E27" s="81">
-        <v>3</v>
-      </c>
-      <c r="F27" s="81" t="s">
+      <c r="E27" s="74">
+        <v>3</v>
+      </c>
+      <c r="F27" s="74" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" s="96" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="95"/>
-      <c r="B28" s="95"/>
-      <c r="C28" s="95"/>
-      <c r="D28" s="95"/>
-      <c r="E28" s="95"/>
-      <c r="F28" s="95"/>
-    </row>
-    <row r="29" spans="1:6" s="96" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="95"/>
-      <c r="B29" s="95"/>
-      <c r="C29" s="95"/>
-      <c r="D29" s="95"/>
-      <c r="E29" s="95"/>
-      <c r="F29" s="95"/>
-    </row>
-    <row r="30" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="94" t="s">
+      <c r="I27" s="101">
+        <v>37500</v>
+      </c>
+      <c r="J27" t="s">
+        <v>29</v>
+      </c>
+      <c r="K27" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="88" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="87"/>
+      <c r="B28" s="87"/>
+      <c r="C28" s="87"/>
+      <c r="D28" s="87"/>
+      <c r="E28" s="87"/>
+      <c r="F28" s="87"/>
+      <c r="I28" s="101">
+        <v>37530</v>
+      </c>
+      <c r="J28" t="s">
+        <v>29</v>
+      </c>
+      <c r="K28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="88" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="87"/>
+      <c r="B29" s="87"/>
+      <c r="C29" s="87"/>
+      <c r="D29" s="87"/>
+      <c r="E29" s="87"/>
+      <c r="F29" s="87"/>
+      <c r="I29" s="101">
+        <v>37561</v>
+      </c>
+      <c r="J29" t="s">
+        <v>29</v>
+      </c>
+      <c r="K29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="94"/>
-      <c r="C30" s="94"/>
-      <c r="D30" s="94"/>
-      <c r="E30" s="94"/>
-      <c r="F30" s="94"/>
-    </row>
-    <row r="31" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="99"/>
+      <c r="C30" s="99"/>
+      <c r="D30" s="99"/>
+      <c r="E30" s="99"/>
+      <c r="F30" s="99"/>
+      <c r="I30" s="101">
+        <v>37591</v>
+      </c>
+      <c r="J30" t="s">
+        <v>29</v>
+      </c>
+      <c r="K30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>0</v>
       </c>
@@ -3314,355 +4825,841 @@
       <c r="F31" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="82" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" s="82">
-        <v>1</v>
-      </c>
-      <c r="C32" s="82">
-        <v>1</v>
-      </c>
-      <c r="D32" s="82">
-        <v>1</v>
-      </c>
-      <c r="E32" s="82">
+      <c r="I31" s="101">
+        <v>37622</v>
+      </c>
+      <c r="J31" t="s">
+        <v>29</v>
+      </c>
+      <c r="K31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="75" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="75">
+        <v>1</v>
+      </c>
+      <c r="C32" s="75">
+        <v>1</v>
+      </c>
+      <c r="D32" s="75">
+        <v>1</v>
+      </c>
+      <c r="E32" s="75">
         <v>9</v>
       </c>
-      <c r="F32" s="82" t="s">
+      <c r="F32" s="75" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="81"/>
-      <c r="B33" s="81">
-        <v>1</v>
-      </c>
-      <c r="C33" s="81">
+      <c r="I32" s="101">
+        <v>37653</v>
+      </c>
+      <c r="J32" t="s">
+        <v>29</v>
+      </c>
+      <c r="K32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="74"/>
+      <c r="B33" s="74">
+        <v>1</v>
+      </c>
+      <c r="C33" s="74">
         <v>4</v>
       </c>
-      <c r="D33" s="84">
+      <c r="D33" s="77">
         <v>30</v>
       </c>
-      <c r="E33" s="81">
-        <v>3</v>
-      </c>
-      <c r="F33" s="81" t="s">
+      <c r="E33" s="74">
+        <v>3</v>
+      </c>
+      <c r="F33" s="74" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A34" s="83" t="s">
-        <v>29</v>
-      </c>
-      <c r="B34" s="83">
+      <c r="I33" s="101">
+        <v>37681</v>
+      </c>
+      <c r="J33" t="s">
+        <v>29</v>
+      </c>
+      <c r="K33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="76" t="s">
+        <v>29</v>
+      </c>
+      <c r="B34" s="76">
         <v>2</v>
       </c>
-      <c r="C34" s="83">
-        <v>1</v>
-      </c>
-      <c r="D34" s="83">
-        <v>1</v>
-      </c>
-      <c r="E34" s="83">
+      <c r="C34" s="76">
+        <v>1</v>
+      </c>
+      <c r="D34" s="76">
+        <v>1</v>
+      </c>
+      <c r="E34" s="76">
         <v>9</v>
       </c>
-      <c r="F34" s="83" t="s">
+      <c r="F34" s="76" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="81"/>
-      <c r="B35" s="81">
+      <c r="I34" s="101">
+        <v>37712</v>
+      </c>
+      <c r="J34" t="s">
+        <v>29</v>
+      </c>
+      <c r="K34" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="74"/>
+      <c r="B35" s="74">
         <v>2</v>
       </c>
-      <c r="C35" s="81">
+      <c r="C35" s="74">
         <v>4</v>
       </c>
-      <c r="D35" s="84">
+      <c r="D35" s="77">
         <v>30</v>
       </c>
-      <c r="E35" s="81">
-        <v>3</v>
-      </c>
-      <c r="F35" s="81" t="s">
+      <c r="E35" s="74">
+        <v>3</v>
+      </c>
+      <c r="F35" s="74" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="85"/>
-      <c r="B36" s="85"/>
-      <c r="C36" s="85"/>
-      <c r="D36" s="86"/>
-      <c r="E36" s="85"/>
-      <c r="F36" s="85"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A37" s="87"/>
-      <c r="B37" s="87">
-        <v>3</v>
-      </c>
-      <c r="C37" s="87">
-        <v>1</v>
-      </c>
-      <c r="D37" s="87">
-        <v>1</v>
-      </c>
-      <c r="E37" s="87">
+      <c r="I35" s="101">
+        <v>37742</v>
+      </c>
+      <c r="J35" t="s">
+        <v>29</v>
+      </c>
+      <c r="K35" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="78"/>
+      <c r="B36" s="78"/>
+      <c r="C36" s="78"/>
+      <c r="D36" s="79"/>
+      <c r="E36" s="78"/>
+      <c r="F36" s="78"/>
+      <c r="I36" s="101">
+        <v>37773</v>
+      </c>
+      <c r="J36" t="s">
+        <v>29</v>
+      </c>
+      <c r="K36" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="80"/>
+      <c r="B37" s="80">
+        <v>3</v>
+      </c>
+      <c r="C37" s="80">
+        <v>1</v>
+      </c>
+      <c r="D37" s="80">
+        <v>1</v>
+      </c>
+      <c r="E37" s="80">
         <v>8</v>
       </c>
-      <c r="F37" s="87" t="s">
+      <c r="F37" s="80" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A38" s="88" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" s="88">
-        <v>3</v>
-      </c>
-      <c r="C38" s="89">
+      <c r="I37" s="101">
+        <v>37803</v>
+      </c>
+      <c r="J37" t="s">
+        <v>29</v>
+      </c>
+      <c r="K37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" s="81" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="81">
+        <v>3</v>
+      </c>
+      <c r="C38" s="82">
         <v>2</v>
       </c>
-      <c r="D38" s="89">
+      <c r="D38" s="82">
         <v>28</v>
       </c>
-      <c r="E38" s="88">
-        <v>1</v>
-      </c>
-      <c r="F38" s="88" t="s">
+      <c r="E38" s="81">
+        <v>1</v>
+      </c>
+      <c r="F38" s="81" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A39" s="63"/>
-      <c r="B39" s="63">
-        <v>3</v>
-      </c>
-      <c r="C39" s="63">
+      <c r="I38" s="101">
+        <v>37834</v>
+      </c>
+      <c r="J38" t="s">
+        <v>29</v>
+      </c>
+      <c r="K38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" s="57"/>
+      <c r="B39" s="57">
+        <v>3</v>
+      </c>
+      <c r="C39" s="57">
         <v>2</v>
       </c>
-      <c r="D39" s="63">
+      <c r="D39" s="57">
         <v>28</v>
       </c>
-      <c r="E39" s="63">
-        <v>3</v>
-      </c>
-      <c r="F39" s="63" t="s">
+      <c r="E39" s="57">
+        <v>3</v>
+      </c>
+      <c r="F39" s="57" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A40" s="88"/>
-      <c r="B40" s="88">
-        <v>3</v>
-      </c>
-      <c r="C40" s="89">
+      <c r="I39" s="101">
+        <v>37865</v>
+      </c>
+      <c r="J39" t="s">
+        <v>29</v>
+      </c>
+      <c r="K39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="81"/>
+      <c r="B40" s="81">
+        <v>3</v>
+      </c>
+      <c r="C40" s="82">
         <v>4</v>
       </c>
-      <c r="D40" s="89">
+      <c r="D40" s="82">
         <v>15</v>
       </c>
-      <c r="E40" s="88">
+      <c r="E40" s="81">
         <v>9</v>
       </c>
-      <c r="F40" s="88" t="s">
+      <c r="F40" s="81" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A41" s="63"/>
-      <c r="B41" s="63">
-        <v>3</v>
-      </c>
-      <c r="C41" s="63">
+      <c r="I40" s="101">
+        <v>37895</v>
+      </c>
+      <c r="J40" t="s">
+        <v>29</v>
+      </c>
+      <c r="K40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="57"/>
+      <c r="B41" s="57">
+        <v>3</v>
+      </c>
+      <c r="C41" s="57">
         <v>4</v>
       </c>
-      <c r="D41" s="63">
+      <c r="D41" s="57">
         <v>15</v>
       </c>
-      <c r="E41" s="63">
-        <v>3</v>
-      </c>
-      <c r="F41" s="63" t="s">
+      <c r="E41" s="57">
+        <v>3</v>
+      </c>
+      <c r="F41" s="57" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A42" s="63"/>
-      <c r="B42" s="63">
-        <v>3</v>
-      </c>
-      <c r="C42" s="63">
+      <c r="I41" s="101">
+        <v>37926</v>
+      </c>
+      <c r="J41" t="s">
+        <v>29</v>
+      </c>
+      <c r="K41" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="57"/>
+      <c r="B42" s="57">
+        <v>3</v>
+      </c>
+      <c r="C42" s="57">
         <v>5</v>
       </c>
-      <c r="D42" s="63">
+      <c r="D42" s="57">
         <v>15</v>
       </c>
-      <c r="E42" s="63">
-        <v>3</v>
-      </c>
-      <c r="F42" s="63" t="s">
+      <c r="E42" s="57">
+        <v>3</v>
+      </c>
+      <c r="F42" s="57" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="I42" s="101">
+        <v>37956</v>
+      </c>
+      <c r="J42" t="s">
+        <v>29</v>
+      </c>
+      <c r="K42" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A44" s="77"/>
-      <c r="B44" s="77">
-        <v>3</v>
-      </c>
-      <c r="C44" s="90">
+      <c r="I43" s="101">
+        <v>37987</v>
+      </c>
+      <c r="J43" t="s">
+        <v>29</v>
+      </c>
+      <c r="K43" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="70"/>
+      <c r="B44" s="70">
+        <v>3</v>
+      </c>
+      <c r="C44" s="83">
         <v>9</v>
       </c>
-      <c r="D44" s="90">
-        <v>1</v>
-      </c>
-      <c r="E44" s="77">
+      <c r="D44" s="83">
+        <v>1</v>
+      </c>
+      <c r="E44" s="70">
         <v>8</v>
       </c>
-      <c r="F44" s="77" t="s">
+      <c r="F44" s="70" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A45" s="78" t="s">
+      <c r="I44" s="101">
+        <v>38018</v>
+      </c>
+      <c r="J44" t="s">
+        <v>29</v>
+      </c>
+      <c r="K44" t="s">
         <v>39</v>
       </c>
-      <c r="B45" s="78">
-        <v>3</v>
-      </c>
-      <c r="C45" s="91">
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="71" t="s">
+        <v>39</v>
+      </c>
+      <c r="B45" s="71">
+        <v>3</v>
+      </c>
+      <c r="C45" s="84">
         <v>10</v>
       </c>
-      <c r="D45" s="91">
+      <c r="D45" s="84">
         <v>15</v>
       </c>
-      <c r="E45" s="78">
-        <v>1</v>
-      </c>
-      <c r="F45" s="78" t="s">
+      <c r="E45" s="71">
+        <v>1</v>
+      </c>
+      <c r="F45" s="71" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A46" s="78"/>
-      <c r="B46" s="78">
-        <v>3</v>
-      </c>
-      <c r="C46" s="91">
+      <c r="I45" s="101">
+        <v>38047</v>
+      </c>
+      <c r="J45" t="s">
+        <v>29</v>
+      </c>
+      <c r="K45" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="71"/>
+      <c r="B46" s="71">
+        <v>3</v>
+      </c>
+      <c r="C46" s="84">
         <v>10</v>
       </c>
-      <c r="D46" s="91">
+      <c r="D46" s="84">
         <v>15</v>
       </c>
-      <c r="E46" s="78">
-        <v>3</v>
-      </c>
-      <c r="F46" s="78" t="s">
+      <c r="E46" s="71">
+        <v>3</v>
+      </c>
+      <c r="F46" s="71" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A47" s="79"/>
-      <c r="B47" s="79">
+      <c r="I46" s="101">
+        <v>38078</v>
+      </c>
+      <c r="J46" t="s">
+        <v>29</v>
+      </c>
+      <c r="K46" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="72"/>
+      <c r="B47" s="72">
         <v>4</v>
       </c>
-      <c r="C47" s="92">
+      <c r="C47" s="85">
         <v>2</v>
       </c>
-      <c r="D47" s="92">
-        <v>1</v>
-      </c>
-      <c r="E47" s="79">
+      <c r="D47" s="85">
+        <v>1</v>
+      </c>
+      <c r="E47" s="72">
         <v>5</v>
       </c>
-      <c r="F47" s="79" t="s">
+      <c r="F47" s="72" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A48" s="77"/>
-      <c r="B48" s="77">
+      <c r="I47" s="101">
+        <v>38108</v>
+      </c>
+      <c r="J47" t="s">
+        <v>29</v>
+      </c>
+      <c r="K47" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="70"/>
+      <c r="B48" s="70">
         <v>4</v>
       </c>
-      <c r="C48" s="90">
-        <v>3</v>
-      </c>
-      <c r="D48" s="90">
+      <c r="C48" s="83">
+        <v>3</v>
+      </c>
+      <c r="D48" s="83">
         <v>10</v>
       </c>
-      <c r="E48" s="77">
+      <c r="E48" s="70">
         <v>8</v>
       </c>
-      <c r="F48" s="77" t="s">
+      <c r="F48" s="70" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A49" s="80" t="s">
-        <v>29</v>
-      </c>
-      <c r="B49" s="80">
+      <c r="I48" s="101">
+        <v>38139</v>
+      </c>
+      <c r="J48" t="s">
+        <v>29</v>
+      </c>
+      <c r="K48" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="73" t="s">
+        <v>29</v>
+      </c>
+      <c r="B49" s="73">
         <v>4</v>
       </c>
-      <c r="C49" s="93">
+      <c r="C49" s="86">
         <v>4</v>
       </c>
-      <c r="D49" s="93">
+      <c r="D49" s="86">
         <v>10</v>
       </c>
-      <c r="E49" s="80">
-        <v>1</v>
-      </c>
-      <c r="F49" s="80" t="s">
+      <c r="E49" s="73">
+        <v>1</v>
+      </c>
+      <c r="F49" s="73" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A50" s="80"/>
-      <c r="B50" s="80">
+      <c r="I49" s="101">
+        <v>38169</v>
+      </c>
+      <c r="J49" t="s">
+        <v>29</v>
+      </c>
+      <c r="K49" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="73"/>
+      <c r="B50" s="73">
         <v>4</v>
       </c>
-      <c r="C50" s="93">
+      <c r="C50" s="86">
         <v>4</v>
       </c>
-      <c r="D50" s="93">
+      <c r="D50" s="86">
         <v>10</v>
       </c>
-      <c r="E50" s="80">
-        <v>3</v>
-      </c>
-      <c r="F50" s="80" t="s">
+      <c r="E50" s="73">
+        <v>3</v>
+      </c>
+      <c r="F50" s="73" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A51" s="81"/>
-      <c r="B51" s="81">
+      <c r="I50" s="101">
+        <v>38200</v>
+      </c>
+      <c r="J50" t="s">
+        <v>29</v>
+      </c>
+      <c r="K50" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="74"/>
+      <c r="B51" s="74">
         <v>4</v>
       </c>
-      <c r="C51" s="84">
+      <c r="C51" s="77">
         <v>10</v>
       </c>
-      <c r="D51" s="84">
+      <c r="D51" s="77">
         <v>15</v>
       </c>
-      <c r="E51" s="81">
+      <c r="E51" s="74">
         <v>9</v>
       </c>
-      <c r="F51" s="81" t="s">
+      <c r="F51" s="74" t="s">
         <v>31</v>
+      </c>
+      <c r="I51" s="101">
+        <v>38231</v>
+      </c>
+      <c r="J51" t="s">
+        <v>29</v>
+      </c>
+      <c r="K51" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I52" s="101">
+        <v>38261</v>
+      </c>
+      <c r="J52" t="s">
+        <v>29</v>
+      </c>
+      <c r="K52" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I53" s="101">
+        <v>38292</v>
+      </c>
+      <c r="J53" t="s">
+        <v>29</v>
+      </c>
+      <c r="K53" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I54" s="101">
+        <v>38322</v>
+      </c>
+      <c r="J54" t="s">
+        <v>29</v>
+      </c>
+      <c r="K54" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I55" s="101">
+        <v>38353</v>
+      </c>
+      <c r="J55" t="s">
+        <v>29</v>
+      </c>
+      <c r="K55" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I56" s="101">
+        <v>38384</v>
+      </c>
+      <c r="J56" t="s">
+        <v>38</v>
+      </c>
+      <c r="K56" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I57" s="101">
+        <v>38412</v>
+      </c>
+      <c r="J57" t="s">
+        <v>38</v>
+      </c>
+      <c r="K57" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I58" s="101">
+        <v>38443</v>
+      </c>
+      <c r="J58" t="s">
+        <v>38</v>
+      </c>
+      <c r="K58" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I59" s="101">
+        <v>38473</v>
+      </c>
+      <c r="J59" t="s">
+        <v>38</v>
+      </c>
+      <c r="K59" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I60" s="101">
+        <v>38504</v>
+      </c>
+      <c r="J60" t="s">
+        <v>38</v>
+      </c>
+      <c r="K60" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I61" s="101">
+        <v>38534</v>
+      </c>
+      <c r="J61" t="s">
+        <v>38</v>
+      </c>
+      <c r="K61" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I62" s="101">
+        <v>38565</v>
+      </c>
+      <c r="J62" t="s">
+        <v>38</v>
+      </c>
+      <c r="K62" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I63" s="101">
+        <v>38596</v>
+      </c>
+      <c r="J63" t="s">
+        <v>38</v>
+      </c>
+      <c r="K63" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I64" s="101">
+        <v>38626</v>
+      </c>
+      <c r="J64" t="s">
+        <v>39</v>
+      </c>
+      <c r="K64" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="65" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I65" s="101">
+        <v>38657</v>
+      </c>
+      <c r="J65" t="s">
+        <v>39</v>
+      </c>
+      <c r="K65" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="66" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I66" s="101">
+        <v>38687</v>
+      </c>
+      <c r="J66" t="s">
+        <v>39</v>
+      </c>
+      <c r="K66" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I67" s="101">
+        <v>38718</v>
+      </c>
+      <c r="J67" t="s">
+        <v>39</v>
+      </c>
+      <c r="K67" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="68" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I68" s="101">
+        <v>38749</v>
+      </c>
+      <c r="J68" t="s">
+        <v>39</v>
+      </c>
+      <c r="K68" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="69" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I69" s="101">
+        <v>38777</v>
+      </c>
+      <c r="J69" t="s">
+        <v>39</v>
+      </c>
+      <c r="K69" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="70" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I70" s="101">
+        <v>38808</v>
+      </c>
+      <c r="J70" t="s">
+        <v>29</v>
+      </c>
+      <c r="K70" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="71" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I71" s="101">
+        <v>38838</v>
+      </c>
+      <c r="J71" t="s">
+        <v>29</v>
+      </c>
+      <c r="K71" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="72" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I72" s="101">
+        <v>38869</v>
+      </c>
+      <c r="J72" t="s">
+        <v>29</v>
+      </c>
+      <c r="K72" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="73" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I73" s="101">
+        <v>38899</v>
+      </c>
+      <c r="J73" t="s">
+        <v>29</v>
+      </c>
+      <c r="K73" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="74" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I74" s="101">
+        <v>38930</v>
+      </c>
+      <c r="J74" t="s">
+        <v>29</v>
+      </c>
+      <c r="K74" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="75" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I75" s="101">
+        <v>38961</v>
+      </c>
+      <c r="J75" t="s">
+        <v>29</v>
+      </c>
+      <c r="K75" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="76" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I76" s="101">
+        <v>38991</v>
+      </c>
+      <c r="J76" t="s">
+        <v>29</v>
+      </c>
+      <c r="K76" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="77" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I77" s="101">
+        <v>39022</v>
+      </c>
+      <c r="J77" t="s">
+        <v>29</v>
+      </c>
+      <c r="K77" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="78" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I78" s="101">
+        <v>39052</v>
+      </c>
+      <c r="J78" t="s">
+        <v>29</v>
+      </c>
+      <c r="K78" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -3675,16 +5672,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10C920CE-BFC7-4909-ABA8-529BE15DA5E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="100" t="s">
         <v>44</v>
       </c>
@@ -3694,11 +5691,11 @@
       <c r="E2" s="100"/>
       <c r="F2" s="100"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="97" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="97" t="s">
+      <c r="B3" s="89" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -3710,27 +5707,27 @@
       <c r="E3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="97" t="s">
+      <c r="F3" s="89" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="98" t="s">
+    <row r="4" spans="1:6" ht="14.45" x14ac:dyDescent="0.35">
+      <c r="A4" s="90" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="99" t="s">
+      <c r="B4" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="99" t="s">
+      <c r="C4" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="D4" s="99" t="s">
+      <c r="D4" s="91" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="98">
+      <c r="E4" s="90">
         <v>9</v>
       </c>
-      <c r="F4" s="98" t="s">
+      <c r="F4" s="90" t="s">
         <v>31</v>
       </c>
     </row>

--- a/rotaciones SWAT resumen.xlsx
+++ b/rotaciones SWAT resumen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AGRC" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="50">
   <si>
     <t>CROP</t>
   </si>
@@ -165,16 +165,19 @@
     <t xml:space="preserve">GRASP </t>
   </si>
   <si>
-    <t>rotacion_6</t>
+    <t>corte_1</t>
   </si>
   <si>
-    <t>rotacion_7</t>
+    <t>corte_2</t>
   </si>
   <si>
-    <t>rotacion_4</t>
+    <t>1 año adelantado</t>
   </si>
   <si>
-    <t>rotacion_5</t>
+    <t>aca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">aca </t>
   </si>
 </sst>
 </file>
@@ -219,7 +222,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="17">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -316,6 +319,36 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="32">
     <border>
@@ -744,7 +777,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1007,6 +1040,7 @@
     <xf numFmtId="49" fontId="0" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1034,7 +1068,12 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1341,7 +1380,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1349,10 +1388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O72"/>
+  <dimension ref="A1:O36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1361,18 +1400,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="93" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="94"/>
-      <c r="L1" s="101">
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="95"/>
+      <c r="L1" s="92">
         <v>36892</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="102" t="s">
         <v>10</v>
       </c>
       <c r="O1" t="s">
@@ -1398,14 +1437,14 @@
       <c r="F2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="95" t="s">
+      <c r="I2" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="96"/>
-      <c r="L2" s="101">
+      <c r="J2" s="97"/>
+      <c r="L2" s="92">
         <v>36923</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="102" t="s">
         <v>10</v>
       </c>
       <c r="O2" t="s">
@@ -1435,10 +1474,10 @@
       <c r="J3" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="101">
+      <c r="L3" s="92">
         <v>36951</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="102" t="s">
         <v>10</v>
       </c>
       <c r="O3" t="s">
@@ -1470,10 +1509,10 @@
       <c r="J4" s="20">
         <v>1</v>
       </c>
-      <c r="L4" s="101">
+      <c r="L4" s="92">
         <v>36982</v>
       </c>
-      <c r="M4" t="s">
+      <c r="M4" s="103" t="s">
         <v>12</v>
       </c>
       <c r="O4" t="s">
@@ -1493,10 +1532,10 @@
       <c r="J5" s="22">
         <v>1</v>
       </c>
-      <c r="L5" s="101">
+      <c r="L5" s="92">
         <v>37012</v>
       </c>
-      <c r="M5" t="s">
+      <c r="M5" s="103" t="s">
         <v>12</v>
       </c>
       <c r="O5" t="s">
@@ -1526,10 +1565,10 @@
       <c r="J6" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="101">
+      <c r="L6" s="92">
         <v>37043</v>
       </c>
-      <c r="M6" t="s">
+      <c r="M6" s="103" t="s">
         <v>12</v>
       </c>
       <c r="O6" t="s">
@@ -1561,10 +1600,10 @@
       <c r="J7" s="26">
         <v>2</v>
       </c>
-      <c r="L7" s="101">
+      <c r="L7" s="92">
         <v>37073</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" s="103" t="s">
         <v>12</v>
       </c>
       <c r="O7" t="s">
@@ -1594,10 +1633,10 @@
       <c r="J8" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="L8" s="101">
+      <c r="L8" s="92">
         <v>37104</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="103" t="s">
         <v>12</v>
       </c>
       <c r="O8" t="s">
@@ -1627,10 +1666,10 @@
       <c r="J9" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="101">
+      <c r="L9" s="92">
         <v>37135</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" s="103" t="s">
         <v>12</v>
       </c>
       <c r="O9" t="s">
@@ -1662,10 +1701,10 @@
       <c r="J10" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="101">
+      <c r="L10" s="92">
         <v>37165</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" s="103" t="s">
         <v>12</v>
       </c>
       <c r="O10" t="s">
@@ -1689,10 +1728,10 @@
       <c r="F11" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="L11" s="101">
+      <c r="L11" s="92">
         <v>37196</v>
       </c>
-      <c r="M11" t="s">
+      <c r="M11" s="103" t="s">
         <v>12</v>
       </c>
       <c r="O11" t="s">
@@ -1716,10 +1755,10 @@
       <c r="F12" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="L12" s="101">
+      <c r="L12" s="92">
         <v>37226</v>
       </c>
-      <c r="M12" t="s">
+      <c r="M12" s="102" t="s">
         <v>10</v>
       </c>
       <c r="O12" t="s">
@@ -1745,10 +1784,10 @@
       <c r="F13" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="L13" s="101">
+      <c r="L13" s="92">
         <v>37257</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M13" s="102" t="s">
         <v>10</v>
       </c>
       <c r="O13" t="s">
@@ -1772,10 +1811,10 @@
       <c r="F14" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="L14" s="101">
+      <c r="L14" s="92">
         <v>37288</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M14" s="102" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1796,10 +1835,10 @@
       <c r="F15" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="L15" s="101">
+      <c r="L15" s="92">
         <v>37316</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M15" s="102" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1822,10 +1861,10 @@
       <c r="F16" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="L16" s="101">
+      <c r="L16" s="92">
         <v>37347</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M16" s="105" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1836,10 +1875,10 @@
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
-      <c r="L17" s="101">
+      <c r="L17" s="92">
         <v>37377</v>
       </c>
-      <c r="M17" t="s">
+      <c r="M17" s="105" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1860,10 +1899,10 @@
       <c r="F18" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="L18" s="101">
+      <c r="L18" s="92">
         <v>37408</v>
       </c>
-      <c r="M18" t="s">
+      <c r="M18" s="105" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1886,10 +1925,10 @@
       <c r="F19" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L19" s="101">
+      <c r="L19" s="92">
         <v>37438</v>
       </c>
-      <c r="M19" t="s">
+      <c r="M19" s="105" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1910,10 +1949,10 @@
       <c r="F20" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L20" s="101">
+      <c r="L20" s="92">
         <v>37469</v>
       </c>
-      <c r="M20" t="s">
+      <c r="M20" s="105" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1934,427 +1973,143 @@
       <c r="F21" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="L21" s="101">
+      <c r="L21" s="92">
         <v>37500</v>
       </c>
-      <c r="M21" t="s">
+      <c r="M21" s="105" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L22" s="101">
+      <c r="L22" s="92">
         <v>37530</v>
       </c>
-      <c r="M22" t="s">
+      <c r="M22" s="105" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L23" s="101">
+      <c r="L23" s="92">
         <v>37561</v>
       </c>
-      <c r="M23" t="s">
+      <c r="M23" s="104" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L24" s="101">
+      <c r="L24" s="92">
         <v>37591</v>
       </c>
-      <c r="M24" t="s">
+      <c r="M24" s="104" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L25" s="101">
+      <c r="K25" t="s">
+        <v>49</v>
+      </c>
+      <c r="L25" s="92">
         <v>37622</v>
       </c>
-      <c r="M25" t="s">
+      <c r="M25" s="104" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L26" s="101">
+      <c r="L26" s="92">
         <v>37653</v>
       </c>
-      <c r="M26" t="s">
+      <c r="M26" s="104" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L27" s="101">
+      <c r="L27" s="92">
         <v>37681</v>
       </c>
-      <c r="M27" t="s">
+      <c r="M27" s="104" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L28" s="101">
+      <c r="L28" s="92">
         <v>37712</v>
       </c>
-      <c r="M28" t="s">
+      <c r="M28" s="104" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L29" s="101">
+      <c r="L29" s="92">
         <v>37742</v>
       </c>
-      <c r="M29" t="s">
+      <c r="M29" s="105" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L30" s="101">
+      <c r="L30" s="92">
         <v>37773</v>
       </c>
-      <c r="M30" t="s">
+      <c r="M30" s="105" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L31" s="101">
+      <c r="L31" s="92">
         <v>37803</v>
       </c>
-      <c r="M31" t="s">
+      <c r="M31" s="105" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L32" s="101">
+      <c r="L32" s="92">
         <v>37834</v>
       </c>
-      <c r="M32" t="s">
+      <c r="M32" s="105" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="33" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L33" s="101">
+      <c r="L33" s="92">
         <v>37865</v>
       </c>
-      <c r="M33" t="s">
+      <c r="M33" s="105" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="34" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L34" s="101">
+      <c r="L34" s="92">
         <v>37895</v>
       </c>
-      <c r="M34" t="s">
+      <c r="M34" s="105" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="35" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L35" s="101">
+      <c r="L35" s="92">
         <v>37926</v>
       </c>
-      <c r="M35" t="s">
+      <c r="M35" s="102" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="36" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L36" s="101">
+      <c r="L36" s="92">
         <v>37956</v>
       </c>
-      <c r="M36" t="s">
+      <c r="M36" s="102" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L37" s="101">
-        <v>37987</v>
-      </c>
-      <c r="M37" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="38" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L38" s="101">
-        <v>38018</v>
-      </c>
-      <c r="M38" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L39" s="101">
-        <v>38047</v>
-      </c>
-      <c r="M39" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="40" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L40" s="101">
-        <v>38078</v>
-      </c>
-      <c r="M40" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="41" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L41" s="101">
-        <v>38108</v>
-      </c>
-      <c r="M41" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="42" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L42" s="101">
-        <v>38139</v>
-      </c>
-      <c r="M42" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L43" s="101">
-        <v>38169</v>
-      </c>
-      <c r="M43" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L44" s="101">
-        <v>38200</v>
-      </c>
-      <c r="M44" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="45" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L45" s="101">
-        <v>38231</v>
-      </c>
-      <c r="M45" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="46" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L46" s="101">
-        <v>38261</v>
-      </c>
-      <c r="M46" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="47" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L47" s="101">
-        <v>38292</v>
-      </c>
-      <c r="M47" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="48" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L48" s="101">
-        <v>38322</v>
-      </c>
-      <c r="M48" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L49" s="101">
-        <v>38353</v>
-      </c>
-      <c r="M49" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L50" s="101">
-        <v>38384</v>
-      </c>
-      <c r="M50" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="51" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L51" s="101">
-        <v>38412</v>
-      </c>
-      <c r="M51" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="52" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L52" s="101">
-        <v>38443</v>
-      </c>
-      <c r="M52" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="53" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L53" s="101">
-        <v>38473</v>
-      </c>
-      <c r="M53" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="54" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L54" s="101">
-        <v>38504</v>
-      </c>
-      <c r="M54" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="55" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L55" s="101">
-        <v>38534</v>
-      </c>
-      <c r="M55" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="56" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L56" s="101">
-        <v>38565</v>
-      </c>
-      <c r="M56" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="57" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L57" s="101">
-        <v>38596</v>
-      </c>
-      <c r="M57" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="58" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L58" s="101">
-        <v>38626</v>
-      </c>
-      <c r="M58" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="59" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L59" s="101">
-        <v>38657</v>
-      </c>
-      <c r="M59" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="60" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L60" s="101">
-        <v>38687</v>
-      </c>
-      <c r="M60" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="61" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L61" s="101">
-        <v>38718</v>
-      </c>
-      <c r="M61" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="62" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L62" s="101">
-        <v>38749</v>
-      </c>
-      <c r="M62" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="63" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L63" s="101">
-        <v>38777</v>
-      </c>
-      <c r="M63" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="64" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L64" s="101">
-        <v>38808</v>
-      </c>
-      <c r="M64" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="65" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L65" s="101">
-        <v>38838</v>
-      </c>
-      <c r="M65" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="66" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L66" s="101">
-        <v>38869</v>
-      </c>
-      <c r="M66" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="67" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L67" s="101">
-        <v>38899</v>
-      </c>
-      <c r="M67" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="68" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L68" s="101">
-        <v>38930</v>
-      </c>
-      <c r="M68" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="69" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L69" s="101">
-        <v>38961</v>
-      </c>
-      <c r="M69" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="70" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L70" s="101">
-        <v>38991</v>
-      </c>
-      <c r="M70" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="71" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L71" s="101">
-        <v>39022</v>
-      </c>
-      <c r="M71" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="72" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L72" s="101">
-        <v>39052</v>
-      </c>
-      <c r="M72" t="s">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
+  <dataConsolidate/>
   <mergeCells count="2">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="I2:J2"/>
   </mergeCells>
-  <conditionalFormatting sqref="M1:M72">
+  <conditionalFormatting sqref="M1:M36">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -2372,10 +2127,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J86"/>
+  <dimension ref="A1:K74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2386,17 +2141,17 @@
     <col min="9" max="9" width="10.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="95" t="s">
+    <row r="1" spans="1:11" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="95" t="s">
+      <c r="B1" s="98"/>
+      <c r="C1" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="96"/>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D1" s="97"/>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29"/>
       <c r="B2" s="30" t="s">
         <v>17</v>
@@ -2406,7 +2161,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A3" s="33" t="s">
         <v>25</v>
       </c>
@@ -2420,7 +2175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="36" t="s">
         <v>18</v>
       </c>
@@ -2432,7 +2187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A5" s="40" t="s">
         <v>26</v>
       </c>
@@ -2446,7 +2201,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="36" t="s">
         <v>18</v>
       </c>
@@ -2458,7 +2213,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A7" s="33" t="s">
         <v>25</v>
       </c>
@@ -2472,7 +2227,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="42"/>
       <c r="B8" s="43">
         <v>3</v>
@@ -2484,7 +2239,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="14.45" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.35">
       <c r="A9" s="33" t="s">
         <v>25</v>
       </c>
@@ -2498,7 +2253,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="42"/>
       <c r="B10" s="43">
         <v>4</v>
@@ -2510,7 +2265,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:10" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="46" t="s">
         <v>25</v>
       </c>
@@ -2524,17 +2279,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="98" t="s">
+    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="99" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="98"/>
-      <c r="C13" s="98"/>
-      <c r="D13" s="98"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="98"/>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="99"/>
+      <c r="C13" s="99"/>
+      <c r="D13" s="99"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="99"/>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
@@ -2554,13 +2309,13 @@
         <v>5</v>
       </c>
       <c r="I14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="49" t="s">
         <v>29</v>
       </c>
@@ -2579,30 +2334,33 @@
       <c r="F15" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="H15" s="101">
+      <c r="H15" s="92">
         <v>36892</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="J15" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J15" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="K15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="51"/>
       <c r="B16" s="52"/>
       <c r="C16" s="51"/>
       <c r="D16" s="51"/>
       <c r="E16" s="51"/>
       <c r="F16" s="51"/>
-      <c r="H16" s="101">
+      <c r="H16" s="92">
         <v>36923</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="107" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2623,13 +2381,13 @@
       <c r="F17" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="H17" s="101">
+      <c r="H17" s="92">
         <v>36951</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="107" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2652,13 +2410,13 @@
       <c r="F18" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H18" s="101">
+      <c r="H18" s="92">
         <v>36982</v>
       </c>
-      <c r="I18" t="s">
-        <v>29</v>
-      </c>
-      <c r="J18" t="s">
+      <c r="I18" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="J18" s="107" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2679,13 +2437,13 @@
       <c r="F19" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H19" s="101">
+      <c r="H19" s="92">
         <v>37012</v>
       </c>
-      <c r="I19" t="s">
-        <v>29</v>
-      </c>
-      <c r="J19" t="s">
+      <c r="I19" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="J19" s="107" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2706,13 +2464,13 @@
       <c r="F20" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H20" s="101">
+      <c r="H20" s="92">
         <v>37043</v>
       </c>
-      <c r="I20" t="s">
-        <v>29</v>
-      </c>
-      <c r="J20" t="s">
+      <c r="I20" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="J20" s="107" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2733,13 +2491,13 @@
       <c r="F21" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="H21" s="101">
+      <c r="H21" s="92">
         <v>37073</v>
       </c>
-      <c r="I21" t="s">
-        <v>29</v>
-      </c>
-      <c r="J21" t="s">
+      <c r="I21" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="J21" s="107" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2762,13 +2520,13 @@
       <c r="F22" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="H22" s="101">
+      <c r="H22" s="92">
         <v>37104</v>
       </c>
-      <c r="I22" t="s">
-        <v>29</v>
-      </c>
-      <c r="J22" t="s">
+      <c r="I22" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="J22" s="107" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2789,13 +2547,13 @@
       <c r="F23" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="H23" s="101">
+      <c r="H23" s="92">
         <v>37135</v>
       </c>
-      <c r="I23" t="s">
-        <v>29</v>
-      </c>
-      <c r="J23" t="s">
+      <c r="I23" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="J23" s="107" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2816,13 +2574,13 @@
       <c r="F24" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="H24" s="101">
+      <c r="H24" s="92">
         <v>37165</v>
       </c>
-      <c r="I24" t="s">
-        <v>29</v>
-      </c>
-      <c r="J24" t="s">
+      <c r="I24" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="J24" s="107" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2843,13 +2601,13 @@
       <c r="F25" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="H25" s="101">
+      <c r="H25" s="92">
         <v>37196</v>
       </c>
-      <c r="I25" t="s">
-        <v>29</v>
-      </c>
-      <c r="J25" t="s">
+      <c r="I25" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="J25" s="107" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2870,13 +2628,13 @@
       <c r="F26" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="H26" s="101">
+      <c r="H26" s="92">
         <v>37226</v>
       </c>
-      <c r="I26" t="s">
-        <v>29</v>
-      </c>
-      <c r="J26" t="s">
+      <c r="I26" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="J26" s="107" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2887,13 +2645,13 @@
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
-      <c r="H27" s="101">
+      <c r="H27" s="92">
         <v>37257</v>
       </c>
-      <c r="I27" t="s">
-        <v>29</v>
-      </c>
-      <c r="J27" t="s">
+      <c r="I27" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="J27" s="107" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2914,13 +2672,13 @@
       <c r="F28" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="H28" s="101">
+      <c r="H28" s="92">
         <v>37288</v>
       </c>
-      <c r="I28" t="s">
-        <v>29</v>
-      </c>
-      <c r="J28" t="s">
+      <c r="I28" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="J28" s="107" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2943,13 +2701,13 @@
       <c r="F29" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H29" s="101">
+      <c r="H29" s="92">
         <v>37316</v>
       </c>
-      <c r="I29" t="s">
-        <v>29</v>
-      </c>
-      <c r="J29" t="s">
+      <c r="I29" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="J29" s="107" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2970,13 +2728,13 @@
       <c r="F30" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H30" s="101">
+      <c r="H30" s="92">
         <v>37347</v>
       </c>
-      <c r="I30" t="s">
-        <v>29</v>
-      </c>
-      <c r="J30" t="s">
+      <c r="I30" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="J30" s="107" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2997,13 +2755,13 @@
       <c r="F31" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H31" s="101">
+      <c r="H31" s="92">
         <v>37377</v>
       </c>
-      <c r="I31" t="s">
-        <v>29</v>
-      </c>
-      <c r="J31" t="s">
+      <c r="I31" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="J31" s="107" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3024,13 +2782,13 @@
       <c r="F32" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="H32" s="101">
+      <c r="H32" s="92">
         <v>37408</v>
       </c>
-      <c r="I32" t="s">
-        <v>29</v>
-      </c>
-      <c r="J32" t="s">
+      <c r="I32" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="J32" s="107" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3053,13 +2811,13 @@
       <c r="F33" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="H33" s="101">
+      <c r="H33" s="92">
         <v>37438</v>
       </c>
-      <c r="I33" t="s">
-        <v>29</v>
-      </c>
-      <c r="J33" t="s">
+      <c r="I33" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="J33" s="107" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3080,13 +2838,13 @@
       <c r="F34" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="H34" s="101">
+      <c r="H34" s="92">
         <v>37469</v>
       </c>
-      <c r="I34" t="s">
-        <v>29</v>
-      </c>
-      <c r="J34" t="s">
+      <c r="I34" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="J34" s="107" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3107,13 +2865,13 @@
       <c r="F35" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="H35" s="101">
+      <c r="H35" s="92">
         <v>37500</v>
       </c>
-      <c r="I35" t="s">
-        <v>29</v>
-      </c>
-      <c r="J35" t="s">
+      <c r="I35" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="J35" s="107" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3134,13 +2892,13 @@
       <c r="F36" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="H36" s="101">
+      <c r="H36" s="92">
         <v>37530</v>
       </c>
-      <c r="I36" t="s">
-        <v>29</v>
-      </c>
-      <c r="J36" t="s">
+      <c r="I36" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="J36" s="104" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3161,13 +2919,13 @@
       <c r="F37" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="H37" s="101">
+      <c r="H37" s="92">
         <v>37561</v>
       </c>
-      <c r="I37" t="s">
-        <v>29</v>
-      </c>
-      <c r="J37" t="s">
+      <c r="I37" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="J37" s="104" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3188,13 +2946,13 @@
       <c r="F38" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="H38" s="101">
+      <c r="H38" s="92">
         <v>37591</v>
       </c>
-      <c r="I38" t="s">
-        <v>29</v>
-      </c>
-      <c r="J38" t="s">
+      <c r="I38" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="J38" s="104" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3215,43 +2973,43 @@
       <c r="F39" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="H39" s="101">
+      <c r="H39" s="92">
         <v>37622</v>
       </c>
-      <c r="I39" t="s">
-        <v>29</v>
-      </c>
-      <c r="J39" t="s">
+      <c r="I39" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="J39" s="104" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H40" s="101">
+      <c r="H40" s="92">
         <v>37653</v>
       </c>
-      <c r="I40" t="s">
-        <v>29</v>
-      </c>
-      <c r="J40" t="s">
+      <c r="I40" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="J40" s="104" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="98" t="s">
+      <c r="A41" s="99" t="s">
         <v>37</v>
       </c>
-      <c r="B41" s="98"/>
-      <c r="C41" s="98"/>
-      <c r="D41" s="98"/>
-      <c r="E41" s="98"/>
-      <c r="F41" s="98"/>
-      <c r="H41" s="101">
+      <c r="B41" s="99"/>
+      <c r="C41" s="99"/>
+      <c r="D41" s="99"/>
+      <c r="E41" s="99"/>
+      <c r="F41" s="99"/>
+      <c r="H41" s="92">
         <v>37681</v>
       </c>
-      <c r="I41" t="s">
-        <v>29</v>
-      </c>
-      <c r="J41" t="s">
+      <c r="I41" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="J41" s="104" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3274,13 +3032,13 @@
       <c r="F42" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="H42" s="101">
+      <c r="H42" s="92">
         <v>37712</v>
       </c>
-      <c r="I42" t="s">
-        <v>29</v>
-      </c>
-      <c r="J42" t="s">
+      <c r="I42" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="J42" s="105" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3301,13 +3059,13 @@
       <c r="F43" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="H43" s="101">
+      <c r="H43" s="92">
         <v>37742</v>
       </c>
-      <c r="I43" t="s">
-        <v>29</v>
-      </c>
-      <c r="J43" t="s">
+      <c r="I43" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="J43" s="105" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3328,13 +3086,13 @@
       <c r="F44" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="H44" s="101">
+      <c r="H44" s="92">
         <v>37773</v>
       </c>
-      <c r="I44" t="s">
-        <v>29</v>
-      </c>
-      <c r="J44" t="s">
+      <c r="I44" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="J44" s="105" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3355,13 +3113,13 @@
       <c r="F45" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="H45" s="101">
+      <c r="H45" s="92">
         <v>37803</v>
       </c>
-      <c r="I45" t="s">
-        <v>29</v>
-      </c>
-      <c r="J45" t="s">
+      <c r="I45" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="J45" s="105" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3382,13 +3140,13 @@
       <c r="F46" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="H46" s="101">
+      <c r="H46" s="92">
         <v>37834</v>
       </c>
-      <c r="I46" t="s">
-        <v>29</v>
-      </c>
-      <c r="J46" t="s">
+      <c r="I46" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="J46" s="105" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3409,13 +3167,13 @@
       <c r="F47" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="H47" s="101">
+      <c r="H47" s="92">
         <v>37865</v>
       </c>
-      <c r="I47" t="s">
-        <v>29</v>
-      </c>
-      <c r="J47" t="s">
+      <c r="I47" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="J47" s="105" t="s">
         <v>38</v>
       </c>
     </row>
@@ -3426,13 +3184,13 @@
       <c r="D48" s="51"/>
       <c r="E48" s="51"/>
       <c r="F48" s="51"/>
-      <c r="H48" s="101">
+      <c r="H48" s="92">
         <v>37895</v>
       </c>
-      <c r="I48" t="s">
-        <v>29</v>
-      </c>
-      <c r="J48" t="s">
+      <c r="I48" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="J48" s="104" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3453,13 +3211,13 @@
       <c r="F49" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="H49" s="101">
+      <c r="H49" s="92">
         <v>37926</v>
       </c>
-      <c r="I49" t="s">
-        <v>29</v>
-      </c>
-      <c r="J49" t="s">
+      <c r="I49" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="J49" s="104" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3482,13 +3240,13 @@
       <c r="F50" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H50" s="101">
+      <c r="H50" s="92">
         <v>37956</v>
       </c>
-      <c r="I50" t="s">
-        <v>29</v>
-      </c>
-      <c r="J50" t="s">
+      <c r="I50" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="J50" s="104" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3509,13 +3267,16 @@
       <c r="F51" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H51" s="101">
+      <c r="G51" t="s">
+        <v>48</v>
+      </c>
+      <c r="H51" s="92">
         <v>37987</v>
       </c>
-      <c r="I51" t="s">
-        <v>29</v>
-      </c>
-      <c r="J51" t="s">
+      <c r="I51" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="J51" s="104" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3536,13 +3297,13 @@
       <c r="F52" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H52" s="101">
+      <c r="H52" s="92">
         <v>38018</v>
       </c>
-      <c r="I52" t="s">
-        <v>29</v>
-      </c>
-      <c r="J52" t="s">
+      <c r="I52" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="J52" s="104" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3563,13 +3324,13 @@
       <c r="F53" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="H53" s="101">
+      <c r="H53" s="92">
         <v>38047</v>
       </c>
-      <c r="I53" t="s">
-        <v>29</v>
-      </c>
-      <c r="J53" t="s">
+      <c r="I53" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="J53" s="104" t="s">
         <v>13</v>
       </c>
     </row>
@@ -3592,13 +3353,13 @@
       <c r="F54" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="H54" s="101">
+      <c r="H54" s="92">
         <v>38078</v>
       </c>
-      <c r="I54" t="s">
-        <v>29</v>
-      </c>
-      <c r="J54" t="s">
+      <c r="I54" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="J54" s="107" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3619,13 +3380,13 @@
       <c r="F55" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="H55" s="101">
+      <c r="H55" s="92">
         <v>38108</v>
       </c>
-      <c r="I55" t="s">
-        <v>29</v>
-      </c>
-      <c r="J55" t="s">
+      <c r="I55" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="J55" s="107" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3646,13 +3407,13 @@
       <c r="F56" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="H56" s="101">
+      <c r="H56" s="92">
         <v>38139</v>
       </c>
-      <c r="I56" t="s">
-        <v>29</v>
-      </c>
-      <c r="J56" t="s">
+      <c r="I56" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="J56" s="107" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3673,13 +3434,13 @@
       <c r="F57" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="H57" s="101">
+      <c r="H57" s="92">
         <v>38169</v>
       </c>
-      <c r="I57" t="s">
-        <v>29</v>
-      </c>
-      <c r="J57" t="s">
+      <c r="I57" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="J57" s="107" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3700,13 +3461,13 @@
       <c r="F58" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="H58" s="101">
+      <c r="H58" s="92">
         <v>38200</v>
       </c>
-      <c r="I58" t="s">
-        <v>29</v>
-      </c>
-      <c r="J58" t="s">
+      <c r="I58" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="J58" s="107" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3717,13 +3478,13 @@
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
       <c r="F59" s="7"/>
-      <c r="H59" s="101">
+      <c r="H59" s="92">
         <v>38231</v>
       </c>
-      <c r="I59" t="s">
-        <v>29</v>
-      </c>
-      <c r="J59" t="s">
+      <c r="I59" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="J59" s="107" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3744,13 +3505,13 @@
       <c r="F60" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="H60" s="101">
+      <c r="H60" s="92">
         <v>38261</v>
       </c>
-      <c r="I60" t="s">
+      <c r="I60" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="J60" t="s">
+      <c r="J60" s="107" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3773,13 +3534,13 @@
       <c r="F61" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="H61" s="101">
+      <c r="H61" s="92">
         <v>38292</v>
       </c>
-      <c r="I61" t="s">
+      <c r="I61" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="J61" t="s">
+      <c r="J61" s="107" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3800,13 +3561,13 @@
       <c r="F62" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H62" s="101">
+      <c r="H62" s="92">
         <v>38322</v>
       </c>
-      <c r="I62" t="s">
+      <c r="I62" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="J62" t="s">
+      <c r="J62" s="107" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3827,13 +3588,13 @@
       <c r="F63" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H63" s="101">
+      <c r="H63" s="92">
         <v>38353</v>
       </c>
-      <c r="I63" t="s">
+      <c r="I63" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="J63" t="s">
+      <c r="J63" s="107" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3854,13 +3615,13 @@
       <c r="F64" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="H64" s="101">
+      <c r="H64" s="92">
         <v>38384</v>
       </c>
-      <c r="I64" t="s">
+      <c r="I64" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="J64" t="s">
+      <c r="J64" s="107" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3883,13 +3644,13 @@
       <c r="F65" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="H65" s="101">
+      <c r="H65" s="92">
         <v>38412</v>
       </c>
-      <c r="I65" t="s">
+      <c r="I65" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="J65" t="s">
+      <c r="J65" s="107" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3910,13 +3671,13 @@
       <c r="F66" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="H66" s="101">
+      <c r="H66" s="92">
         <v>38443</v>
       </c>
-      <c r="I66" t="s">
+      <c r="I66" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="J66" t="s">
+      <c r="J66" s="107" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3937,222 +3698,90 @@
       <c r="F67" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="H67" s="101">
+      <c r="H67" s="92">
         <v>38473</v>
       </c>
-      <c r="I67" t="s">
+      <c r="I67" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="J67" t="s">
+      <c r="J67" s="107" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H68" s="101">
+      <c r="H68" s="92">
         <v>38504</v>
       </c>
-      <c r="I68" t="s">
+      <c r="I68" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="J68" t="s">
+      <c r="J68" s="107" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H69" s="101">
+      <c r="H69" s="92">
         <v>38534</v>
       </c>
-      <c r="I69" t="s">
+      <c r="I69" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="J69" t="s">
+      <c r="J69" s="107" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H70" s="101">
+      <c r="H70" s="92">
         <v>38565</v>
       </c>
-      <c r="I70" t="s">
+      <c r="I70" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="J70" t="s">
+      <c r="J70" s="107" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H71" s="101">
+      <c r="H71" s="92">
         <v>38596</v>
       </c>
-      <c r="I71" t="s">
+      <c r="I71" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="J71" t="s">
+      <c r="J71" s="107" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H72" s="101">
+      <c r="H72" s="92">
         <v>38626</v>
       </c>
-      <c r="I72" t="s">
+      <c r="I72" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="J72" t="s">
+      <c r="J72" s="107" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H73" s="101">
+      <c r="H73" s="92">
         <v>38657</v>
       </c>
-      <c r="I73" t="s">
+      <c r="I73" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="J73" t="s">
+      <c r="J73" s="107" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H74" s="101">
+      <c r="H74" s="92">
         <v>38687</v>
       </c>
-      <c r="I74" t="s">
+      <c r="I74" s="104" t="s">
         <v>13</v>
       </c>
-      <c r="J74" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H75" s="101">
-        <v>38718</v>
-      </c>
-      <c r="I75" t="s">
-        <v>13</v>
-      </c>
-      <c r="J75" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H76" s="101">
-        <v>38749</v>
-      </c>
-      <c r="I76" t="s">
-        <v>13</v>
-      </c>
-      <c r="J76" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H77" s="101">
-        <v>38777</v>
-      </c>
-      <c r="I77" t="s">
-        <v>13</v>
-      </c>
-      <c r="J77" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H78" s="101">
-        <v>38808</v>
-      </c>
-      <c r="I78" t="s">
-        <v>29</v>
-      </c>
-      <c r="J78" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H79" s="101">
-        <v>38838</v>
-      </c>
-      <c r="I79" t="s">
-        <v>29</v>
-      </c>
-      <c r="J79" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H80" s="101">
-        <v>38869</v>
-      </c>
-      <c r="I80" t="s">
-        <v>29</v>
-      </c>
-      <c r="J80" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="81" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="H81" s="101">
-        <v>38899</v>
-      </c>
-      <c r="I81" t="s">
-        <v>29</v>
-      </c>
-      <c r="J81" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="82" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="H82" s="101">
-        <v>38930</v>
-      </c>
-      <c r="I82" t="s">
-        <v>29</v>
-      </c>
-      <c r="J82" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="83" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="H83" s="101">
-        <v>38961</v>
-      </c>
-      <c r="I83" t="s">
-        <v>29</v>
-      </c>
-      <c r="J83" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="84" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="H84" s="101">
-        <v>38991</v>
-      </c>
-      <c r="I84" t="s">
-        <v>29</v>
-      </c>
-      <c r="J84" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="85" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="H85" s="101">
-        <v>39022</v>
-      </c>
-      <c r="I85" t="s">
-        <v>29</v>
-      </c>
-      <c r="J85" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="86" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="H86" s="101">
-        <v>39052</v>
-      </c>
-      <c r="I86" t="s">
-        <v>29</v>
-      </c>
-      <c r="J86" t="s">
+      <c r="J74" s="107" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4163,16 +3792,100 @@
     <mergeCell ref="A13:F13"/>
     <mergeCell ref="A41:F41"/>
   </mergeCells>
+  <conditionalFormatting sqref="I15:I17">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J36:J41">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J48:J53">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I60:I65">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I72:I74">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J42:J47">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I66:I71">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A6:K78"/>
+  <dimension ref="A6:K54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4183,14 +3896,14 @@
   </cols>
   <sheetData>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="100" t="s">
         <v>41</v>
       </c>
-      <c r="B6" s="99"/>
-      <c r="C6" s="99"/>
-      <c r="D6" s="99"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="99"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="100"/>
+      <c r="E6" s="100"/>
+      <c r="F6" s="100"/>
       <c r="J6" t="s">
         <v>45</v>
       </c>
@@ -4217,13 +3930,13 @@
       <c r="F7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="101">
+      <c r="I7" s="92">
         <v>36892</v>
       </c>
-      <c r="J7" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="J7" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="107" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4234,13 +3947,13 @@
       <c r="D8" s="68"/>
       <c r="E8" s="68"/>
       <c r="F8" s="68"/>
-      <c r="I8" s="101">
+      <c r="I8" s="92">
         <v>36923</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" s="107" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4261,13 +3974,13 @@
       <c r="F9" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="101">
+      <c r="I9" s="92">
         <v>36951</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="107" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4290,13 +4003,13 @@
       <c r="F10" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="101">
+      <c r="I10" s="92">
         <v>36982</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="107" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4317,13 +4030,13 @@
       <c r="F11" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="101">
+      <c r="I11" s="92">
         <v>37012</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K11" s="107" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4344,13 +4057,13 @@
       <c r="F12" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="101">
+      <c r="I12" s="92">
         <v>37043</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="K12" t="s">
+      <c r="K12" s="107" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4371,13 +4084,13 @@
       <c r="F13" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="101">
+      <c r="I13" s="92">
         <v>37073</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="K13" t="s">
+      <c r="K13" s="107" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4398,13 +4111,13 @@
       <c r="F14" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="101">
+      <c r="I14" s="92">
         <v>37104</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="107" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4415,13 +4128,13 @@
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
-      <c r="I15" s="101">
+      <c r="I15" s="92">
         <v>37135</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="K15" t="s">
+      <c r="K15" s="107" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4442,13 +4155,13 @@
       <c r="F16" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="I16" s="101">
+      <c r="I16" s="92">
         <v>37165</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K16" s="107" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4471,13 +4184,13 @@
       <c r="F17" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="I17" s="101">
+      <c r="I17" s="92">
         <v>37196</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K17" s="107" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4498,13 +4211,13 @@
       <c r="F18" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="I18" s="101">
+      <c r="I18" s="92">
         <v>37226</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="K18" t="s">
+      <c r="K18" s="107" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4525,13 +4238,13 @@
       <c r="F19" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="I19" s="101">
+      <c r="I19" s="92">
         <v>37257</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K19" s="107" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4552,13 +4265,13 @@
       <c r="F20" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="I20" s="101">
+      <c r="I20" s="92">
         <v>37288</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K20" s="107" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4581,13 +4294,13 @@
       <c r="F21" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="I21" s="101">
+      <c r="I21" s="92">
         <v>37316</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J21" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K21" s="107" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4608,13 +4321,13 @@
       <c r="F22" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="I22" s="101">
+      <c r="I22" s="92">
         <v>37347</v>
       </c>
-      <c r="J22" t="s">
-        <v>29</v>
-      </c>
-      <c r="K22" t="s">
+      <c r="J22" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="K22" s="107" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4635,13 +4348,13 @@
       <c r="F23" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="I23" s="101">
+      <c r="I23" s="92">
         <v>37377</v>
       </c>
-      <c r="J23" t="s">
-        <v>29</v>
-      </c>
-      <c r="K23" t="s">
+      <c r="J23" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="K23" s="107" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4662,13 +4375,13 @@
       <c r="F24" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="I24" s="101">
+      <c r="I24" s="92">
         <v>37408</v>
       </c>
-      <c r="J24" t="s">
-        <v>29</v>
-      </c>
-      <c r="K24" t="s">
+      <c r="J24" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="K24" s="107" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4689,13 +4402,13 @@
       <c r="F25" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="I25" s="101">
+      <c r="I25" s="92">
         <v>37438</v>
       </c>
-      <c r="J25" t="s">
-        <v>29</v>
-      </c>
-      <c r="K25" t="s">
+      <c r="J25" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="K25" s="107" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4716,13 +4429,13 @@
       <c r="F26" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="I26" s="101">
+      <c r="I26" s="92">
         <v>37469</v>
       </c>
-      <c r="J26" t="s">
-        <v>29</v>
-      </c>
-      <c r="K26" t="s">
+      <c r="J26" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="K26" s="107" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4743,13 +4456,13 @@
       <c r="F27" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="I27" s="101">
+      <c r="I27" s="92">
         <v>37500</v>
       </c>
-      <c r="J27" t="s">
-        <v>29</v>
-      </c>
-      <c r="K27" t="s">
+      <c r="J27" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="K27" s="107" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4760,13 +4473,13 @@
       <c r="D28" s="87"/>
       <c r="E28" s="87"/>
       <c r="F28" s="87"/>
-      <c r="I28" s="101">
+      <c r="I28" s="92">
         <v>37530</v>
       </c>
-      <c r="J28" t="s">
-        <v>29</v>
-      </c>
-      <c r="K28" t="s">
+      <c r="J28" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="K28" s="107" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4777,32 +4490,32 @@
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
       <c r="F29" s="87"/>
-      <c r="I29" s="101">
+      <c r="I29" s="92">
         <v>37561</v>
       </c>
-      <c r="J29" t="s">
-        <v>29</v>
-      </c>
-      <c r="K29" t="s">
+      <c r="J29" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="K29" s="107" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="99" t="s">
+      <c r="A30" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="99"/>
-      <c r="C30" s="99"/>
-      <c r="D30" s="99"/>
-      <c r="E30" s="99"/>
-      <c r="F30" s="99"/>
-      <c r="I30" s="101">
+      <c r="B30" s="100"/>
+      <c r="C30" s="100"/>
+      <c r="D30" s="100"/>
+      <c r="E30" s="100"/>
+      <c r="F30" s="100"/>
+      <c r="I30" s="92">
         <v>37591</v>
       </c>
-      <c r="J30" t="s">
-        <v>29</v>
-      </c>
-      <c r="K30" t="s">
+      <c r="J30" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="K30" s="107" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4825,13 +4538,13 @@
       <c r="F31" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I31" s="101">
+      <c r="I31" s="92">
         <v>37622</v>
       </c>
-      <c r="J31" t="s">
-        <v>29</v>
-      </c>
-      <c r="K31" t="s">
+      <c r="J31" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="K31" s="107" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4854,13 +4567,13 @@
       <c r="F32" s="75" t="s">
         <v>31</v>
       </c>
-      <c r="I32" s="101">
+      <c r="I32" s="92">
         <v>37653</v>
       </c>
-      <c r="J32" t="s">
-        <v>29</v>
-      </c>
-      <c r="K32" t="s">
+      <c r="J32" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="K32" s="105" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4881,13 +4594,13 @@
       <c r="F33" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="I33" s="101">
+      <c r="I33" s="92">
         <v>37681</v>
       </c>
-      <c r="J33" t="s">
-        <v>29</v>
-      </c>
-      <c r="K33" t="s">
+      <c r="J33" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="K33" s="105" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4910,13 +4623,13 @@
       <c r="F34" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="I34" s="101">
+      <c r="I34" s="92">
         <v>37712</v>
       </c>
-      <c r="J34" t="s">
-        <v>29</v>
-      </c>
-      <c r="K34" t="s">
+      <c r="J34" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="K34" s="105" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4937,13 +4650,13 @@
       <c r="F35" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="I35" s="101">
+      <c r="I35" s="92">
         <v>37742</v>
       </c>
-      <c r="J35" t="s">
-        <v>29</v>
-      </c>
-      <c r="K35" t="s">
+      <c r="J35" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="K35" s="105" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4954,13 +4667,13 @@
       <c r="D36" s="79"/>
       <c r="E36" s="78"/>
       <c r="F36" s="78"/>
-      <c r="I36" s="101">
+      <c r="I36" s="92">
         <v>37773</v>
       </c>
-      <c r="J36" t="s">
-        <v>29</v>
-      </c>
-      <c r="K36" t="s">
+      <c r="J36" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="K36" s="105" t="s">
         <v>38</v>
       </c>
     </row>
@@ -4981,13 +4694,13 @@
       <c r="F37" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="I37" s="101">
+      <c r="I37" s="92">
         <v>37803</v>
       </c>
-      <c r="J37" t="s">
-        <v>29</v>
-      </c>
-      <c r="K37" t="s">
+      <c r="J37" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="K37" s="105" t="s">
         <v>38</v>
       </c>
     </row>
@@ -5010,13 +4723,13 @@
       <c r="F38" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="I38" s="101">
+      <c r="I38" s="92">
         <v>37834</v>
       </c>
-      <c r="J38" t="s">
-        <v>29</v>
-      </c>
-      <c r="K38" t="s">
+      <c r="J38" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="K38" s="105" t="s">
         <v>38</v>
       </c>
     </row>
@@ -5037,13 +4750,13 @@
       <c r="F39" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="I39" s="101">
+      <c r="I39" s="92">
         <v>37865</v>
       </c>
-      <c r="J39" t="s">
-        <v>29</v>
-      </c>
-      <c r="K39" t="s">
+      <c r="J39" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="K39" s="105" t="s">
         <v>38</v>
       </c>
     </row>
@@ -5064,13 +4777,13 @@
       <c r="F40" s="81" t="s">
         <v>31</v>
       </c>
-      <c r="I40" s="101">
+      <c r="I40" s="92">
         <v>37895</v>
       </c>
-      <c r="J40" t="s">
-        <v>29</v>
-      </c>
-      <c r="K40" t="s">
+      <c r="J40" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="K40" s="106" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5091,13 +4804,13 @@
       <c r="F41" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="I41" s="101">
+      <c r="I41" s="92">
         <v>37926</v>
       </c>
-      <c r="J41" t="s">
-        <v>29</v>
-      </c>
-      <c r="K41" t="s">
+      <c r="J41" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="K41" s="106" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5118,13 +4831,13 @@
       <c r="F42" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="I42" s="101">
+      <c r="I42" s="92">
         <v>37956</v>
       </c>
-      <c r="J42" t="s">
-        <v>29</v>
-      </c>
-      <c r="K42" t="s">
+      <c r="J42" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="K42" s="106" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5135,13 +4848,13 @@
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
-      <c r="I43" s="101">
+      <c r="I43" s="92">
         <v>37987</v>
       </c>
-      <c r="J43" t="s">
-        <v>29</v>
-      </c>
-      <c r="K43" t="s">
+      <c r="J43" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="K43" s="106" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5162,13 +4875,13 @@
       <c r="F44" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="I44" s="101">
+      <c r="I44" s="92">
         <v>38018</v>
       </c>
-      <c r="J44" t="s">
-        <v>29</v>
-      </c>
-      <c r="K44" t="s">
+      <c r="J44" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="K44" s="106" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5191,13 +4904,13 @@
       <c r="F45" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="I45" s="101">
+      <c r="I45" s="92">
         <v>38047</v>
       </c>
-      <c r="J45" t="s">
-        <v>29</v>
-      </c>
-      <c r="K45" t="s">
+      <c r="J45" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="K45" s="106" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5218,13 +4931,13 @@
       <c r="F46" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="I46" s="101">
+      <c r="I46" s="92">
         <v>38078</v>
       </c>
-      <c r="J46" t="s">
-        <v>29</v>
-      </c>
-      <c r="K46" t="s">
+      <c r="J46" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="K46" s="107" t="s">
         <v>29</v>
       </c>
     </row>
@@ -5245,13 +4958,13 @@
       <c r="F47" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="I47" s="101">
+      <c r="I47" s="92">
         <v>38108</v>
       </c>
-      <c r="J47" t="s">
-        <v>29</v>
-      </c>
-      <c r="K47" t="s">
+      <c r="J47" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="K47" s="107" t="s">
         <v>29</v>
       </c>
     </row>
@@ -5272,13 +4985,13 @@
       <c r="F48" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="I48" s="101">
+      <c r="I48" s="92">
         <v>38139</v>
       </c>
-      <c r="J48" t="s">
-        <v>29</v>
-      </c>
-      <c r="K48" t="s">
+      <c r="J48" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="K48" s="107" t="s">
         <v>29</v>
       </c>
     </row>
@@ -5301,13 +5014,13 @@
       <c r="F49" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="I49" s="101">
+      <c r="I49" s="92">
         <v>38169</v>
       </c>
-      <c r="J49" t="s">
-        <v>29</v>
-      </c>
-      <c r="K49" t="s">
+      <c r="J49" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="K49" s="107" t="s">
         <v>29</v>
       </c>
     </row>
@@ -5328,13 +5041,13 @@
       <c r="F50" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="I50" s="101">
+      <c r="I50" s="92">
         <v>38200</v>
       </c>
-      <c r="J50" t="s">
-        <v>29</v>
-      </c>
-      <c r="K50" t="s">
+      <c r="J50" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="K50" s="107" t="s">
         <v>29</v>
       </c>
     </row>
@@ -5355,310 +5068,46 @@
       <c r="F51" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="I51" s="101">
+      <c r="I51" s="92">
         <v>38231</v>
       </c>
-      <c r="J51" t="s">
-        <v>29</v>
-      </c>
-      <c r="K51" t="s">
+      <c r="J51" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="K51" s="107" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I52" s="101">
+      <c r="I52" s="92">
         <v>38261</v>
       </c>
-      <c r="J52" t="s">
-        <v>29</v>
-      </c>
-      <c r="K52" t="s">
+      <c r="J52" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="K52" s="107" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I53" s="101">
+      <c r="I53" s="92">
         <v>38292</v>
       </c>
-      <c r="J53" t="s">
-        <v>29</v>
-      </c>
-      <c r="K53" t="s">
+      <c r="J53" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="K53" s="107" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I54" s="101">
+      <c r="I54" s="92">
         <v>38322</v>
       </c>
-      <c r="J54" t="s">
-        <v>29</v>
-      </c>
-      <c r="K54" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I55" s="101">
-        <v>38353</v>
-      </c>
-      <c r="J55" t="s">
-        <v>29</v>
-      </c>
-      <c r="K55" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I56" s="101">
-        <v>38384</v>
-      </c>
-      <c r="J56" t="s">
-        <v>38</v>
-      </c>
-      <c r="K56" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I57" s="101">
-        <v>38412</v>
-      </c>
-      <c r="J57" t="s">
-        <v>38</v>
-      </c>
-      <c r="K57" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I58" s="101">
-        <v>38443</v>
-      </c>
-      <c r="J58" t="s">
-        <v>38</v>
-      </c>
-      <c r="K58" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I59" s="101">
-        <v>38473</v>
-      </c>
-      <c r="J59" t="s">
-        <v>38</v>
-      </c>
-      <c r="K59" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I60" s="101">
-        <v>38504</v>
-      </c>
-      <c r="J60" t="s">
-        <v>38</v>
-      </c>
-      <c r="K60" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I61" s="101">
-        <v>38534</v>
-      </c>
-      <c r="J61" t="s">
-        <v>38</v>
-      </c>
-      <c r="K61" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I62" s="101">
-        <v>38565</v>
-      </c>
-      <c r="J62" t="s">
-        <v>38</v>
-      </c>
-      <c r="K62" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I63" s="101">
-        <v>38596</v>
-      </c>
-      <c r="J63" t="s">
-        <v>38</v>
-      </c>
-      <c r="K63" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I64" s="101">
-        <v>38626</v>
-      </c>
-      <c r="J64" t="s">
-        <v>39</v>
-      </c>
-      <c r="K64" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="65" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I65" s="101">
-        <v>38657</v>
-      </c>
-      <c r="J65" t="s">
-        <v>39</v>
-      </c>
-      <c r="K65" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="66" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I66" s="101">
-        <v>38687</v>
-      </c>
-      <c r="J66" t="s">
-        <v>39</v>
-      </c>
-      <c r="K66" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="67" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I67" s="101">
-        <v>38718</v>
-      </c>
-      <c r="J67" t="s">
-        <v>39</v>
-      </c>
-      <c r="K67" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="68" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I68" s="101">
-        <v>38749</v>
-      </c>
-      <c r="J68" t="s">
-        <v>39</v>
-      </c>
-      <c r="K68" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="69" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I69" s="101">
-        <v>38777</v>
-      </c>
-      <c r="J69" t="s">
-        <v>39</v>
-      </c>
-      <c r="K69" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="70" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I70" s="101">
-        <v>38808</v>
-      </c>
-      <c r="J70" t="s">
-        <v>29</v>
-      </c>
-      <c r="K70" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="71" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I71" s="101">
-        <v>38838</v>
-      </c>
-      <c r="J71" t="s">
-        <v>29</v>
-      </c>
-      <c r="K71" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="72" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I72" s="101">
-        <v>38869</v>
-      </c>
-      <c r="J72" t="s">
-        <v>29</v>
-      </c>
-      <c r="K72" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="73" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I73" s="101">
-        <v>38899</v>
-      </c>
-      <c r="J73" t="s">
-        <v>29</v>
-      </c>
-      <c r="K73" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="74" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I74" s="101">
-        <v>38930</v>
-      </c>
-      <c r="J74" t="s">
-        <v>29</v>
-      </c>
-      <c r="K74" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="75" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I75" s="101">
-        <v>38961</v>
-      </c>
-      <c r="J75" t="s">
-        <v>29</v>
-      </c>
-      <c r="K75" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="76" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I76" s="101">
-        <v>38991</v>
-      </c>
-      <c r="J76" t="s">
-        <v>29</v>
-      </c>
-      <c r="K76" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="77" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I77" s="101">
-        <v>39022</v>
-      </c>
-      <c r="J77" t="s">
-        <v>29</v>
-      </c>
-      <c r="K77" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="78" spans="9:11" x14ac:dyDescent="0.25">
-      <c r="I78" s="101">
-        <v>39052</v>
-      </c>
-      <c r="J78" t="s">
-        <v>29</v>
-      </c>
-      <c r="K78" t="s">
+      <c r="J54" s="107" t="s">
+        <v>29</v>
+      </c>
+      <c r="K54" s="107" t="s">
         <v>29</v>
       </c>
     </row>
@@ -5667,6 +5116,30 @@
     <mergeCell ref="A6:F6"/>
     <mergeCell ref="A30:F30"/>
   </mergeCells>
+  <conditionalFormatting sqref="J8:J15">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K32:K39">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5676,20 +5149,20 @@
   <dimension ref="A2:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:6" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="100" t="s">
+      <c r="A2" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="89" t="s">

--- a/rotaciones SWAT resumen.xlsx
+++ b/rotaciones SWAT resumen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10425" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="AGRC" sheetId="1" r:id="rId1"/>
@@ -2129,8 +2129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3884,7 +3884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:K54"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
